--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_19_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_19_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1514144.176372749</v>
+        <v>1513477.558936329</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>392548.0828146759</v>
+        <v>392548.0828146758</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058548</v>
+        <v>632041.4518058551</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>84.54481721446604</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.300964703200833</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="H11" t="n">
-        <v>71.54466328548665</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.1279849893131</v>
+        <v>23.12798498931313</v>
       </c>
       <c r="T11" t="n">
-        <v>18.30111863218013</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>46.03812530998775</v>
+        <v>46.03812530998778</v>
       </c>
       <c r="V11" t="n">
-        <v>84.54481721446604</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>79.1668831278746</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.037534323605975</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>81.23766957162896</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>10.8332127786881</v>
+        <v>10.83321277868813</v>
       </c>
       <c r="U12" t="n">
-        <v>33.11619900411961</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="V12" t="n">
-        <v>36.53747918923779</v>
+        <v>36.53747918923781</v>
       </c>
       <c r="W12" t="n">
-        <v>62.59314185084713</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="X12" t="n">
-        <v>13.20147271330615</v>
+        <v>13.20147271330617</v>
       </c>
       <c r="Y12" t="n">
-        <v>84.54481721446604</v>
+        <v>19.27284440786119</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>31.23138271479829</v>
+        <v>31.23138271479832</v>
       </c>
       <c r="T13" t="n">
-        <v>19.62677120258715</v>
+        <v>19.62677120258718</v>
       </c>
       <c r="U13" t="n">
-        <v>84.54481721446619</v>
+        <v>84.54481721446622</v>
       </c>
       <c r="V13" t="n">
-        <v>40.99757345828544</v>
+        <v>40.99757345828547</v>
       </c>
       <c r="W13" t="n">
-        <v>84.54481721446604</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="X13" t="n">
-        <v>17.80801368207807</v>
+        <v>17.8080136820781</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.02983108800396</v>
+        <v>13.02983108800399</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.03834418970689</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>84.54481721446604</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>36.42873081279469</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>23.12798498931304</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>18.30111863218007</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>46.03812530998769</v>
       </c>
       <c r="V14" t="n">
-        <v>84.54481721446604</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>84.54481721446604</v>
+        <v>71.544663285487</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>81.20383220068081</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>10.83321277868793</v>
+        <v>10.83321277868805</v>
       </c>
       <c r="U15" t="n">
-        <v>33.11619900411944</v>
+        <v>35.84658568488895</v>
       </c>
       <c r="V15" t="n">
-        <v>36.53747918923762</v>
+        <v>36.53747918923773</v>
       </c>
       <c r="W15" t="n">
-        <v>62.59314185084696</v>
+        <v>62.59314185084708</v>
       </c>
       <c r="X15" t="n">
-        <v>84.54481721446604</v>
+        <v>13.20147271330609</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.27284440786099</v>
+        <v>84.54481721446614</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>31.23138271479812</v>
+        <v>31.23138271479824</v>
       </c>
       <c r="T16" t="n">
-        <v>19.62677120258698</v>
+        <v>19.62677120258709</v>
       </c>
       <c r="U16" t="n">
-        <v>84.54481721446604</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="V16" t="n">
-        <v>40.99757345828527</v>
+        <v>40.99757345828539</v>
       </c>
       <c r="W16" t="n">
-        <v>84.54481721446604</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="X16" t="n">
-        <v>17.8080136820779</v>
+        <v>17.80801368207801</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.02983108800379</v>
+        <v>13.0298310880039</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38.65434805750084</v>
+        <v>38.6543480575009</v>
       </c>
       <c r="C17" t="n">
-        <v>14.77260506084633</v>
+        <v>14.77260506084639</v>
       </c>
       <c r="D17" t="n">
-        <v>2.339267321894795</v>
+        <v>2.339267321894852</v>
       </c>
       <c r="E17" t="n">
-        <v>36.04601974130367</v>
+        <v>36.04601974130372</v>
       </c>
       <c r="F17" t="n">
-        <v>67.76635731968099</v>
+        <v>67.76635731968105</v>
       </c>
       <c r="G17" t="n">
-        <v>83.3930999360968</v>
+        <v>83.39309993609686</v>
       </c>
       <c r="H17" t="n">
-        <v>11.46376063065043</v>
+        <v>11.46376063065048</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.463571505434402</v>
+        <v>2.463571505434459</v>
       </c>
       <c r="X17" t="n">
-        <v>24.34982197437364</v>
+        <v>24.3498219743737</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.8526750981174</v>
+        <v>46.85267509811746</v>
       </c>
     </row>
     <row r="18">
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>84.54481721446604</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.85943295535303</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.037534323605975</v>
+        <v>6.037534323605971</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="S18" t="n">
-        <v>16.57010772354263</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>84.54481721446604</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>68.42954067889578</v>
       </c>
       <c r="Y18" t="n">
-        <v>84.54481721446604</v>
+        <v>84.54481721446614</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38.65434805750084</v>
+        <v>38.65434805750095</v>
       </c>
       <c r="C20" t="n">
-        <v>14.77260506084633</v>
+        <v>14.77260506084644</v>
       </c>
       <c r="D20" t="n">
-        <v>2.339267321894795</v>
+        <v>2.339267321894908</v>
       </c>
       <c r="E20" t="n">
-        <v>36.04601974130367</v>
+        <v>36.04601974130378</v>
       </c>
       <c r="F20" t="n">
-        <v>67.76635731968099</v>
+        <v>67.76635731968111</v>
       </c>
       <c r="G20" t="n">
-        <v>83.3930999360968</v>
+        <v>83.39309993609695</v>
       </c>
       <c r="H20" t="n">
-        <v>11.46376063065043</v>
+        <v>11.46376063065054</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.463571505434402</v>
+        <v>2.463571505434516</v>
       </c>
       <c r="X20" t="n">
-        <v>24.34982197437364</v>
+        <v>24.34982197437375</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.8526750981174</v>
+        <v>46.85267509811752</v>
       </c>
     </row>
     <row r="21">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>84.54481721446604</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>68.42954067889578</v>
       </c>
       <c r="D21" t="n">
-        <v>84.54481721446604</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>84.54481721446604</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.037534323605971</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2217,16 +2217,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="W21" t="n">
-        <v>74.46707500250166</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>84.54481721446614</v>
       </c>
     </row>
     <row r="22">
@@ -2397,73 +2397,73 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
         <v>84.54481721446614</v>
       </c>
-      <c r="D24" t="n">
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
         <v>74.46707500250176</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="U24" t="n">
         <v>84.54481721446614</v>
       </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
       <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
         <v>84.54481721446614</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2688,19 +2688,19 @@
         <v>2.104210934813235</v>
       </c>
       <c r="U27" t="n">
-        <v>24.38719716024475</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V27" t="n">
         <v>237.0167624896093</v>
       </c>
       <c r="W27" t="n">
-        <v>53.86414000697226</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>4.472470869431277</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>10.54384256398629</v>
       </c>
     </row>
     <row r="28">
@@ -2810,7 +2810,7 @@
         <v>134.0562093809436</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69972896892003</v>
+        <v>27.69972896892002</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39898314543825</v>
+        <v>14.39898314543826</v>
       </c>
       <c r="T29" t="n">
-        <v>9.572116788305294</v>
+        <v>9.572116788305291</v>
       </c>
       <c r="U29" t="n">
         <v>37.30912346611291</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.85943295535303</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.037534323605971</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2925,19 +2925,19 @@
         <v>2.104210934813263</v>
       </c>
       <c r="U30" t="n">
-        <v>24.38719716024478</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.80847734536295</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>53.86414000697229</v>
       </c>
       <c r="X30" t="n">
-        <v>213.6807560136774</v>
+        <v>155.7837887347186</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.54384256398632</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.246796807794</v>
+        <v>161.2467968077939</v>
       </c>
       <c r="C32" t="n">
-        <v>137.3650538111395</v>
+        <v>137.3650538111394</v>
       </c>
       <c r="D32" t="n">
         <v>124.9317160721879</v>
@@ -3044,10 +3044,10 @@
         <v>205.9855486863899</v>
       </c>
       <c r="H32" t="n">
-        <v>134.0562093809436</v>
+        <v>134.0562093809435</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69972896891997</v>
+        <v>27.69972896891994</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39898314543819</v>
+        <v>14.39898314543817</v>
       </c>
       <c r="T32" t="n">
-        <v>9.572116788305237</v>
+        <v>9.572116788305209</v>
       </c>
       <c r="U32" t="n">
-        <v>37.30912346611285</v>
+        <v>37.30912346611282</v>
       </c>
       <c r="V32" t="n">
-        <v>108.0393400391127</v>
+        <v>108.0393400391126</v>
       </c>
       <c r="W32" t="n">
         <v>125.0560202557275</v>
       </c>
       <c r="X32" t="n">
-        <v>146.9422707246668</v>
+        <v>146.9422707246667</v>
       </c>
       <c r="Y32" t="n">
         <v>169.4451238484105</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.037534323605971</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.104210934813206</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U33" t="n">
         <v>237.2276407302841</v>
       </c>
       <c r="V33" t="n">
-        <v>237.0167624896094</v>
+        <v>71.80691308942497</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>53.86414000697221</v>
       </c>
       <c r="X33" t="n">
-        <v>4.472470869431248</v>
+        <v>4.47247086943122</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.54384256398626</v>
+        <v>10.54384256398623</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.5023808709234</v>
+        <v>22.50238087092337</v>
       </c>
       <c r="T34" t="n">
-        <v>10.89776935871225</v>
+        <v>10.89776935871223</v>
       </c>
       <c r="U34" t="n">
-        <v>75.8158153705913</v>
+        <v>75.81581537059127</v>
       </c>
       <c r="V34" t="n">
-        <v>32.26857161441055</v>
+        <v>32.26857161441052</v>
       </c>
       <c r="W34" t="n">
-        <v>77.47026351929597</v>
+        <v>77.47026351929594</v>
       </c>
       <c r="X34" t="n">
-        <v>9.079011838203172</v>
+        <v>9.079011838203144</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.300829244129062</v>
+        <v>4.300829244129034</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>137.8521485991666</v>
+        <v>137.8521485991665</v>
       </c>
       <c r="C35" t="n">
-        <v>113.9704056025121</v>
+        <v>113.970405602512</v>
       </c>
       <c r="D35" t="n">
         <v>101.5370678635605</v>
@@ -3281,10 +3281,10 @@
         <v>182.5909004777625</v>
       </c>
       <c r="H35" t="n">
-        <v>110.6615611723162</v>
+        <v>110.6615611723161</v>
       </c>
       <c r="I35" t="n">
-        <v>4.305080760292583</v>
+        <v>4.305080760292526</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.91447525748546</v>
+        <v>13.91447525748541</v>
       </c>
       <c r="V35" t="n">
-        <v>84.64469183048527</v>
+        <v>84.64469183048521</v>
       </c>
       <c r="W35" t="n">
         <v>101.6613720471001</v>
       </c>
       <c r="X35" t="n">
-        <v>123.5476225160394</v>
+        <v>123.5476225160393</v>
       </c>
       <c r="Y35" t="n">
         <v>146.0504756397831</v>
@@ -3387,28 +3387,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.037534323605971</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>28.74126889264612</v>
       </c>
       <c r="S36" t="n">
-        <v>53.7009805554482</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.9446545048526</v>
       </c>
       <c r="U36" t="n">
-        <v>0.9925489516173334</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V36" t="n">
-        <v>4.413829136735501</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>30.46949179834479</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>52.42116716196391</v>
+        <v>52.42116716196385</v>
       </c>
       <c r="V37" t="n">
-        <v>8.87392340578316</v>
+        <v>8.873923405783103</v>
       </c>
       <c r="W37" t="n">
-        <v>54.07561531066858</v>
+        <v>54.07561531066852</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>137.8521485991665</v>
+        <v>137.8521485991666</v>
       </c>
       <c r="C38" t="n">
-        <v>113.970405602512</v>
+        <v>113.9704056025121</v>
       </c>
       <c r="D38" t="n">
         <v>101.5370678635605</v>
       </c>
       <c r="E38" t="n">
-        <v>135.2438202829693</v>
+        <v>135.2438202829694</v>
       </c>
       <c r="F38" t="n">
-        <v>166.9641578613466</v>
+        <v>166.9641578613467</v>
       </c>
       <c r="G38" t="n">
         <v>182.5909004777625</v>
       </c>
       <c r="H38" t="n">
-        <v>110.6615611723161</v>
+        <v>110.6615611723162</v>
       </c>
       <c r="I38" t="n">
-        <v>4.305080760292498</v>
+        <v>4.305080760292583</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.91447525748538</v>
+        <v>13.91447525748546</v>
       </c>
       <c r="V38" t="n">
-        <v>84.64469183048519</v>
+        <v>84.64469183048527</v>
       </c>
       <c r="W38" t="n">
         <v>101.6613720471001</v>
       </c>
       <c r="X38" t="n">
-        <v>123.5476225160393</v>
+        <v>123.5476225160394</v>
       </c>
       <c r="Y38" t="n">
         <v>146.0504756397831</v>
@@ -3588,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>53.70098055544823</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3633,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U39" t="n">
-        <v>0.9925489516172481</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V39" t="n">
-        <v>159.7213676767788</v>
+        <v>4.413829136735501</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>30.46949179834485</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>52.42116716196382</v>
+        <v>52.42116716196391</v>
       </c>
       <c r="V40" t="n">
-        <v>8.873923405783074</v>
+        <v>8.87392340578316</v>
       </c>
       <c r="W40" t="n">
-        <v>54.0756153106685</v>
+        <v>54.07561531066858</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>137.8521485991666</v>
+        <v>137.8521485991665</v>
       </c>
       <c r="C41" t="n">
-        <v>113.9704056025121</v>
+        <v>113.970405602512</v>
       </c>
       <c r="D41" t="n">
         <v>101.5370678635605</v>
       </c>
       <c r="E41" t="n">
-        <v>135.2438202829694</v>
+        <v>135.2438202829693</v>
       </c>
       <c r="F41" t="n">
-        <v>166.9641578613467</v>
+        <v>166.9641578613466</v>
       </c>
       <c r="G41" t="n">
-        <v>182.5909004777626</v>
+        <v>182.5909004777625</v>
       </c>
       <c r="H41" t="n">
-        <v>110.6615611723162</v>
+        <v>110.6615611723161</v>
       </c>
       <c r="I41" t="n">
-        <v>4.305080760292583</v>
+        <v>4.305080760292498</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>13.91447525748547</v>
+        <v>13.91447525748538</v>
       </c>
       <c r="V41" t="n">
-        <v>84.64469183048527</v>
+        <v>84.64469183048519</v>
       </c>
       <c r="W41" t="n">
         <v>101.6613720471001</v>
       </c>
       <c r="X41" t="n">
-        <v>123.5476225160394</v>
+        <v>123.5476225160393</v>
       </c>
       <c r="Y41" t="n">
         <v>146.0504756397831</v>
@@ -3822,19 +3822,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>109.4733199837223</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>125.6725816482287</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3873,16 +3873,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2276407302841</v>
+        <v>0.9925489516172481</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>4.413829136735416</v>
       </c>
       <c r="W42" t="n">
-        <v>154.5203678712207</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>52.42116716196391</v>
+        <v>52.42116716196382</v>
       </c>
       <c r="V43" t="n">
-        <v>8.87392340578316</v>
+        <v>8.873923405783074</v>
       </c>
       <c r="W43" t="n">
-        <v>54.07561531066858</v>
+        <v>54.0756153106685</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>137.8521485991666</v>
       </c>
       <c r="C44" t="n">
-        <v>113.9704056025121</v>
+        <v>113.970405602512</v>
       </c>
       <c r="D44" t="n">
-        <v>101.537067863561</v>
+        <v>101.5370678635605</v>
       </c>
       <c r="E44" t="n">
         <v>135.2438202829694</v>
@@ -3989,13 +3989,13 @@
         <v>166.9641578613467</v>
       </c>
       <c r="G44" t="n">
-        <v>182.5909004777626</v>
+        <v>182.5909004777625</v>
       </c>
       <c r="H44" t="n">
         <v>110.6615611723162</v>
       </c>
       <c r="I44" t="n">
-        <v>4.305080760292583</v>
+        <v>4.305080760292554</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>13.91447525748547</v>
+        <v>13.91447525748544</v>
       </c>
       <c r="V44" t="n">
-        <v>84.64469183048527</v>
+        <v>84.64469183048524</v>
       </c>
       <c r="W44" t="n">
         <v>101.6613720471001</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>98.46633611879047</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4107,16 +4107,16 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276407302841</v>
+        <v>0.9925489516173049</v>
       </c>
       <c r="V45" t="n">
-        <v>4.413829136735501</v>
+        <v>4.413829136735473</v>
       </c>
       <c r="W45" t="n">
-        <v>107.6453906433211</v>
+        <v>30.46949179834482</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.42116716196391</v>
+        <v>52.42116716196388</v>
       </c>
       <c r="V46" t="n">
-        <v>8.87392340578316</v>
+        <v>8.873923405783131</v>
       </c>
       <c r="W46" t="n">
-        <v>54.07561531066858</v>
+        <v>54.07561531066855</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164.4297272963014</v>
+        <v>268.3145109797828</v>
       </c>
       <c r="C11" t="n">
-        <v>79.030922029164</v>
+        <v>182.9157057126453</v>
       </c>
       <c r="D11" t="n">
-        <v>79.030922029164</v>
+        <v>177.5611959114323</v>
       </c>
       <c r="E11" t="n">
-        <v>79.030922029164</v>
+        <v>177.5611959114323</v>
       </c>
       <c r="F11" t="n">
-        <v>79.030922029164</v>
+        <v>92.16239064429482</v>
       </c>
       <c r="G11" t="n">
-        <v>79.030922029164</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="H11" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="I11" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="J11" t="n">
-        <v>82.94899698275037</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="K11" t="n">
-        <v>82.94899698275037</v>
+        <v>57.76854735444581</v>
       </c>
       <c r="L11" t="n">
-        <v>131.5728241922342</v>
+        <v>141.4679163967673</v>
       </c>
       <c r="M11" t="n">
-        <v>214.552160455789</v>
+        <v>224.4472526603221</v>
       </c>
       <c r="N11" t="n">
-        <v>292.0317531153189</v>
+        <v>301.926845319852</v>
       </c>
       <c r="O11" t="n">
-        <v>328.2841766533314</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="P11" t="n">
-        <v>328.2841766533314</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="Q11" t="n">
-        <v>328.2841766533314</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="R11" t="n">
-        <v>338.1792688578641</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="S11" t="n">
-        <v>314.8176678585579</v>
+        <v>314.8176678585584</v>
       </c>
       <c r="T11" t="n">
-        <v>296.3316894422143</v>
+        <v>314.8176678585584</v>
       </c>
       <c r="U11" t="n">
-        <v>249.8285325634388</v>
+        <v>268.3145109797828</v>
       </c>
       <c r="V11" t="n">
-        <v>164.4297272963014</v>
+        <v>268.3145109797828</v>
       </c>
       <c r="W11" t="n">
-        <v>164.4297272963014</v>
+        <v>268.3145109797828</v>
       </c>
       <c r="X11" t="n">
-        <v>164.4297272963014</v>
+        <v>268.3145109797828</v>
       </c>
       <c r="Y11" t="n">
-        <v>164.4297272963014</v>
+        <v>268.3145109797828</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="C12" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="D12" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="E12" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="F12" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="G12" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="H12" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="I12" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="J12" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="K12" t="n">
-        <v>45.76878079825749</v>
+        <v>45.7687807982575</v>
       </c>
       <c r="L12" t="n">
-        <v>45.76878079825749</v>
+        <v>129.468149840579</v>
       </c>
       <c r="M12" t="n">
-        <v>129.4681498405789</v>
+        <v>129.468149840579</v>
       </c>
       <c r="N12" t="n">
-        <v>170.7805307732214</v>
+        <v>170.7805307732216</v>
       </c>
       <c r="O12" t="n">
-        <v>254.4798998155428</v>
+        <v>254.4798998155431</v>
       </c>
       <c r="P12" t="n">
-        <v>338.1792688578641</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.0807493390702</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="R12" t="n">
-        <v>332.0807493390702</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="S12" t="n">
-        <v>250.0224972465157</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="T12" t="n">
-        <v>239.0798580761237</v>
+        <v>327.2366296874725</v>
       </c>
       <c r="U12" t="n">
-        <v>205.6291520113564</v>
+        <v>241.837824420335</v>
       </c>
       <c r="V12" t="n">
-        <v>168.7226073757627</v>
+        <v>204.9312797847412</v>
       </c>
       <c r="W12" t="n">
-        <v>105.4972115668262</v>
+        <v>119.5324745176037</v>
       </c>
       <c r="X12" t="n">
-        <v>92.1623906442947</v>
+        <v>106.1976535950722</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.763585377157283</v>
+        <v>86.73013399117204</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.99316122774169</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="C13" t="n">
-        <v>70.27087937439188</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="D13" t="n">
-        <v>128.6103829350911</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="E13" t="n">
-        <v>190.4213304438912</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="F13" t="n">
-        <v>254.9540443565318</v>
+        <v>71.2962992897979</v>
       </c>
       <c r="G13" t="n">
-        <v>290.0160136945731</v>
+        <v>71.2962992897979</v>
       </c>
       <c r="H13" t="n">
-        <v>301.4940970687584</v>
+        <v>71.2962992897979</v>
       </c>
       <c r="I13" t="n">
-        <v>301.4940970687584</v>
+        <v>71.2962992897979</v>
       </c>
       <c r="J13" t="n">
-        <v>301.4940970687584</v>
+        <v>71.2962992897979</v>
       </c>
       <c r="K13" t="n">
-        <v>301.4940970687584</v>
+        <v>71.2962992897979</v>
       </c>
       <c r="L13" t="n">
-        <v>301.4940970687584</v>
+        <v>154.9956683321194</v>
       </c>
       <c r="M13" t="n">
-        <v>301.4940970687584</v>
+        <v>238.6950373744409</v>
       </c>
       <c r="N13" t="n">
-        <v>301.4940970687584</v>
+        <v>238.6950373744409</v>
       </c>
       <c r="O13" t="n">
-        <v>301.4940970687584</v>
+        <v>301.4940970687587</v>
       </c>
       <c r="P13" t="n">
-        <v>301.4940970687584</v>
+        <v>301.4940970687587</v>
       </c>
       <c r="Q13" t="n">
-        <v>301.4940970687584</v>
+        <v>301.4940970687587</v>
       </c>
       <c r="R13" t="n">
-        <v>301.4940970687584</v>
+        <v>301.4940970687587</v>
       </c>
       <c r="S13" t="n">
-        <v>269.9472458416894</v>
+        <v>269.9472458416897</v>
       </c>
       <c r="T13" t="n">
-        <v>250.1222244249348</v>
+        <v>250.122224424935</v>
       </c>
       <c r="U13" t="n">
-        <v>164.7234191577972</v>
+        <v>164.7234191577974</v>
       </c>
       <c r="V13" t="n">
-        <v>123.3117287958927</v>
+        <v>123.3117287958929</v>
       </c>
       <c r="W13" t="n">
-        <v>37.9129235287553</v>
+        <v>37.91292352875536</v>
       </c>
       <c r="X13" t="n">
-        <v>19.92503092059563</v>
+        <v>19.92503092059566</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>128.9590884349964</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="C14" t="n">
-        <v>128.9590884349964</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="D14" t="n">
-        <v>128.9590884349964</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="E14" t="n">
-        <v>43.56028316785899</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="F14" t="n">
-        <v>43.56028316785899</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="G14" t="n">
-        <v>43.56028316785899</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="H14" t="n">
-        <v>43.56028316785899</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="I14" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="J14" t="n">
-        <v>82.9489969827502</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="K14" t="n">
-        <v>82.9489969827502</v>
+        <v>9.144720144962029</v>
       </c>
       <c r="L14" t="n">
-        <v>131.572824192234</v>
+        <v>57.76854735444583</v>
       </c>
       <c r="M14" t="n">
-        <v>214.5521604557889</v>
+        <v>140.7478836180007</v>
       </c>
       <c r="N14" t="n">
-        <v>292.0317531153187</v>
+        <v>218.2274762775306</v>
       </c>
       <c r="O14" t="n">
-        <v>328.2841766533313</v>
+        <v>254.4798998155431</v>
       </c>
       <c r="P14" t="n">
-        <v>328.2841766533313</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="Q14" t="n">
-        <v>328.2841766533313</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="R14" t="n">
-        <v>338.1792688578641</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="S14" t="n">
-        <v>338.1792688578641</v>
+        <v>314.8176678585584</v>
       </c>
       <c r="T14" t="n">
-        <v>338.1792688578641</v>
+        <v>296.3316894422149</v>
       </c>
       <c r="U14" t="n">
-        <v>338.1792688578641</v>
+        <v>249.8285325634395</v>
       </c>
       <c r="V14" t="n">
-        <v>252.7804635907267</v>
+        <v>164.429727296302</v>
       </c>
       <c r="W14" t="n">
-        <v>252.7804635907267</v>
+        <v>79.03092202916437</v>
       </c>
       <c r="X14" t="n">
-        <v>252.7804635907267</v>
+        <v>79.03092202916437</v>
       </c>
       <c r="Y14" t="n">
-        <v>167.3816583235893</v>
+        <v>6.763585377157291</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>88.7876583071379</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="C15" t="n">
-        <v>88.7876583071379</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="D15" t="n">
-        <v>88.7876583071379</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="E15" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="F15" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="G15" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="H15" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="I15" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="J15" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="K15" t="n">
-        <v>6.763585377157283</v>
+        <v>45.7687807982575</v>
       </c>
       <c r="L15" t="n">
-        <v>6.763585377157283</v>
+        <v>129.468149840579</v>
       </c>
       <c r="M15" t="n">
-        <v>90.46295441947866</v>
+        <v>213.1675188829005</v>
       </c>
       <c r="N15" t="n">
-        <v>170.7805307732214</v>
+        <v>254.4798998155431</v>
       </c>
       <c r="O15" t="n">
-        <v>254.4798998155428</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="P15" t="n">
-        <v>338.1792688578641</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="Q15" t="n">
-        <v>338.1792688578641</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="R15" t="n">
-        <v>338.1792688578641</v>
+        <v>252.780463590727</v>
       </c>
       <c r="S15" t="n">
-        <v>338.1792688578641</v>
+        <v>252.780463590727</v>
       </c>
       <c r="T15" t="n">
-        <v>327.2366296874723</v>
+        <v>241.8378244203351</v>
       </c>
       <c r="U15" t="n">
-        <v>293.7859236227052</v>
+        <v>205.6291520113563</v>
       </c>
       <c r="V15" t="n">
-        <v>256.8793789871116</v>
+        <v>168.7226073757627</v>
       </c>
       <c r="W15" t="n">
-        <v>193.6539831781753</v>
+        <v>105.4972115668262</v>
       </c>
       <c r="X15" t="n">
-        <v>108.2551779110379</v>
+        <v>92.16239064429482</v>
       </c>
       <c r="Y15" t="n">
-        <v>88.7876583071379</v>
+        <v>6.763585377157291</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.99316122774185</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="C16" t="n">
-        <v>32.99316122774185</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="D16" t="n">
-        <v>91.33266478844124</v>
+        <v>65.10308893785657</v>
       </c>
       <c r="E16" t="n">
-        <v>153.1436122972415</v>
+        <v>65.10308893785657</v>
       </c>
       <c r="F16" t="n">
-        <v>217.6763262098823</v>
+        <v>65.10308893785657</v>
       </c>
       <c r="G16" t="n">
-        <v>217.6763262098823</v>
+        <v>65.10308893785657</v>
       </c>
       <c r="H16" t="n">
-        <v>217.6763262098823</v>
+        <v>65.10308893785657</v>
       </c>
       <c r="I16" t="n">
-        <v>218.0785503306617</v>
+        <v>104.1316474669307</v>
       </c>
       <c r="J16" t="n">
-        <v>301.4940970687575</v>
+        <v>187.5471942050264</v>
       </c>
       <c r="K16" t="n">
-        <v>301.4940970687575</v>
+        <v>187.5471942050264</v>
       </c>
       <c r="L16" t="n">
-        <v>301.4940970687575</v>
+        <v>271.2465632473478</v>
       </c>
       <c r="M16" t="n">
-        <v>301.4940970687575</v>
+        <v>301.4940970687582</v>
       </c>
       <c r="N16" t="n">
-        <v>301.4940970687575</v>
+        <v>301.4940970687582</v>
       </c>
       <c r="O16" t="n">
-        <v>301.4940970687575</v>
+        <v>301.4940970687582</v>
       </c>
       <c r="P16" t="n">
-        <v>301.4940970687575</v>
+        <v>301.4940970687582</v>
       </c>
       <c r="Q16" t="n">
-        <v>301.4940970687575</v>
+        <v>301.4940970687582</v>
       </c>
       <c r="R16" t="n">
-        <v>301.4940970687575</v>
+        <v>301.4940970687582</v>
       </c>
       <c r="S16" t="n">
-        <v>269.9472458416886</v>
+        <v>269.9472458416893</v>
       </c>
       <c r="T16" t="n">
-        <v>250.1222244249341</v>
+        <v>250.1222244249346</v>
       </c>
       <c r="U16" t="n">
-        <v>164.7234191577967</v>
+        <v>164.7234191577971</v>
       </c>
       <c r="V16" t="n">
-        <v>123.3117287958924</v>
+        <v>123.3117287958927</v>
       </c>
       <c r="W16" t="n">
-        <v>37.91292352875494</v>
+        <v>37.91292352875519</v>
       </c>
       <c r="X16" t="n">
-        <v>19.92503092059545</v>
+        <v>19.92503092059558</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.724302559453</v>
+        <v>224.7243025594538</v>
       </c>
       <c r="C17" t="n">
-        <v>209.8024792656688</v>
+        <v>209.8024792656696</v>
       </c>
       <c r="D17" t="n">
-        <v>207.4395829809265</v>
+        <v>207.4395829809272</v>
       </c>
       <c r="E17" t="n">
-        <v>171.0294620301147</v>
+        <v>171.0294620301154</v>
       </c>
       <c r="F17" t="n">
-        <v>102.5785960506391</v>
+        <v>102.5785960506395</v>
       </c>
       <c r="G17" t="n">
-        <v>18.34314156973347</v>
+        <v>18.34314156973354</v>
       </c>
       <c r="H17" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="I17" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="J17" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="K17" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="L17" t="n">
-        <v>55.38741258664108</v>
+        <v>57.76854735444583</v>
       </c>
       <c r="M17" t="n">
-        <v>138.3667488501959</v>
+        <v>140.7478836180007</v>
       </c>
       <c r="N17" t="n">
-        <v>215.8463415097258</v>
+        <v>218.2274762775306</v>
       </c>
       <c r="O17" t="n">
-        <v>252.0987650477383</v>
+        <v>254.4798998155431</v>
       </c>
       <c r="P17" t="n">
-        <v>252.0987650477383</v>
+        <v>254.4798998155431</v>
       </c>
       <c r="Q17" t="n">
-        <v>252.0987650477383</v>
+        <v>254.4798998155431</v>
       </c>
       <c r="R17" t="n">
-        <v>252.0987650477383</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="S17" t="n">
-        <v>252.0987650477383</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="T17" t="n">
-        <v>323.7716912337955</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="U17" t="n">
-        <v>323.7716912337955</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="V17" t="n">
-        <v>338.1792688578641</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="W17" t="n">
-        <v>335.6908127917682</v>
+        <v>335.6908127917691</v>
       </c>
       <c r="X17" t="n">
-        <v>311.0950330196736</v>
+        <v>311.0950330196745</v>
       </c>
       <c r="Y17" t="n">
-        <v>263.7690985771306</v>
+        <v>263.7690985771315</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>144.5456562557624</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="C18" t="n">
-        <v>144.5456562557624</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="D18" t="n">
-        <v>144.5456562557624</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="E18" t="n">
-        <v>144.5456562557624</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="F18" t="n">
-        <v>144.5456562557624</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="G18" t="n">
-        <v>144.5456562557624</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="H18" t="n">
-        <v>144.5456562557624</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="I18" t="n">
-        <v>59.14685098862499</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="J18" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="K18" t="n">
-        <v>6.763585377157283</v>
+        <v>45.7687807982575</v>
       </c>
       <c r="L18" t="n">
-        <v>87.08116173089998</v>
+        <v>129.468149840579</v>
       </c>
       <c r="M18" t="n">
-        <v>170.7805307732214</v>
+        <v>170.7805307732216</v>
       </c>
       <c r="N18" t="n">
-        <v>254.4798998155428</v>
+        <v>254.4798998155431</v>
       </c>
       <c r="O18" t="n">
-        <v>338.1792688578641</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="P18" t="n">
-        <v>338.1792688578641</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="Q18" t="n">
-        <v>332.0807493390702</v>
+        <v>332.0807493390706</v>
       </c>
       <c r="R18" t="n">
-        <v>332.0807493390702</v>
+        <v>246.6819440719331</v>
       </c>
       <c r="S18" t="n">
-        <v>315.3432667900373</v>
+        <v>161.2831388047956</v>
       </c>
       <c r="T18" t="n">
-        <v>315.3432667900373</v>
+        <v>161.2831388047956</v>
       </c>
       <c r="U18" t="n">
-        <v>315.3432667900373</v>
+        <v>161.2831388047956</v>
       </c>
       <c r="V18" t="n">
-        <v>315.3432667900373</v>
+        <v>161.2831388047956</v>
       </c>
       <c r="W18" t="n">
-        <v>229.9444615228998</v>
+        <v>161.2831388047956</v>
       </c>
       <c r="X18" t="n">
-        <v>229.9444615228998</v>
+        <v>92.16239064429482</v>
       </c>
       <c r="Y18" t="n">
-        <v>144.5456562557624</v>
+        <v>6.763585377157291</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="C19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="D19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="E19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="F19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="G19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="H19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="I19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="J19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="K19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="L19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="M19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="N19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="O19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="P19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="R19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="S19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="T19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="U19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="V19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="W19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="X19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.7243025594535</v>
+        <v>224.7243025594539</v>
       </c>
       <c r="C20" t="n">
-        <v>209.8024792656693</v>
+        <v>209.8024792656699</v>
       </c>
       <c r="D20" t="n">
-        <v>207.4395829809273</v>
+        <v>207.4395829809275</v>
       </c>
       <c r="E20" t="n">
         <v>171.0294620301156</v>
       </c>
       <c r="F20" t="n">
-        <v>102.5785960506398</v>
+        <v>102.5785960506397</v>
       </c>
       <c r="G20" t="n">
-        <v>18.34314156973347</v>
+        <v>18.3431415697336</v>
       </c>
       <c r="H20" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="I20" t="n">
-        <v>78.43651156321442</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="J20" t="n">
-        <v>78.43651156321442</v>
+        <v>90.46295441947876</v>
       </c>
       <c r="K20" t="n">
-        <v>78.43651156321442</v>
+        <v>90.46295441947876</v>
       </c>
       <c r="L20" t="n">
-        <v>127.0603387726982</v>
+        <v>139.0867816289626</v>
       </c>
       <c r="M20" t="n">
-        <v>210.0396750362531</v>
+        <v>222.0661178925174</v>
       </c>
       <c r="N20" t="n">
-        <v>287.519267695783</v>
+        <v>299.5457105520473</v>
       </c>
       <c r="O20" t="n">
-        <v>323.7716912337955</v>
+        <v>335.7981340900598</v>
       </c>
       <c r="P20" t="n">
-        <v>323.7716912337955</v>
+        <v>335.7981340900598</v>
       </c>
       <c r="Q20" t="n">
-        <v>323.7716912337955</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="R20" t="n">
-        <v>323.7716912337955</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="S20" t="n">
-        <v>323.7716912337955</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="T20" t="n">
-        <v>323.7716912337955</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="U20" t="n">
-        <v>323.7716912337955</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="V20" t="n">
-        <v>338.1792688578641</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="W20" t="n">
-        <v>335.6908127917686</v>
+        <v>335.6908127917691</v>
       </c>
       <c r="X20" t="n">
-        <v>311.095033019674</v>
+        <v>311.0950330196745</v>
       </c>
       <c r="Y20" t="n">
-        <v>263.7690985771311</v>
+        <v>263.7690985771315</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>177.5611959114321</v>
+        <v>75.88433353765809</v>
       </c>
       <c r="C21" t="n">
-        <v>177.5611959114321</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="D21" t="n">
-        <v>92.1623906442947</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="E21" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="F21" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="G21" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="H21" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="I21" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="J21" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="K21" t="n">
-        <v>45.76878079825749</v>
+        <v>45.7687807982575</v>
       </c>
       <c r="L21" t="n">
-        <v>87.08116173089998</v>
+        <v>45.7687807982575</v>
       </c>
       <c r="M21" t="n">
-        <v>87.08116173089998</v>
+        <v>87.08116173090011</v>
       </c>
       <c r="N21" t="n">
-        <v>170.7805307732214</v>
+        <v>170.7805307732216</v>
       </c>
       <c r="O21" t="n">
-        <v>254.4798998155428</v>
+        <v>254.4798998155431</v>
       </c>
       <c r="P21" t="n">
-        <v>338.1792688578641</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="Q21" t="n">
-        <v>338.1792688578641</v>
+        <v>332.0807493390706</v>
       </c>
       <c r="R21" t="n">
-        <v>338.1792688578641</v>
+        <v>332.0807493390706</v>
       </c>
       <c r="S21" t="n">
-        <v>338.1792688578641</v>
+        <v>332.0807493390706</v>
       </c>
       <c r="T21" t="n">
-        <v>338.1792688578641</v>
+        <v>332.0807493390706</v>
       </c>
       <c r="U21" t="n">
-        <v>338.1792688578641</v>
+        <v>332.0807493390706</v>
       </c>
       <c r="V21" t="n">
-        <v>338.1792688578641</v>
+        <v>246.6819440719331</v>
       </c>
       <c r="W21" t="n">
-        <v>262.9600011785695</v>
+        <v>161.2831388047956</v>
       </c>
       <c r="X21" t="n">
-        <v>262.9600011785695</v>
+        <v>161.2831388047956</v>
       </c>
       <c r="Y21" t="n">
-        <v>262.9600011785695</v>
+        <v>75.88433353765809</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="C22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="D22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="E22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="F22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="G22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="H22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="I22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="J22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="K22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="L22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="M22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="N22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="O22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="P22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="R22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="S22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="T22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="U22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="V22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="W22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="X22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.763585377157283</v>
+        <v>6.763585377157291</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.7243025594537</v>
+        <v>224.7243025594539</v>
       </c>
       <c r="C23" t="n">
-        <v>209.8024792656694</v>
+        <v>209.8024792656697</v>
       </c>
       <c r="D23" t="n">
-        <v>207.4395829809271</v>
+        <v>207.4395829809273</v>
       </c>
       <c r="E23" t="n">
-        <v>171.0294620301152</v>
+        <v>171.0294620301154</v>
       </c>
       <c r="F23" t="n">
-        <v>102.5785960506392</v>
+        <v>102.5785960506395</v>
       </c>
       <c r="G23" t="n">
         <v>18.3431415697336</v>
@@ -5999,19 +5999,19 @@
         <v>138.366748850196</v>
       </c>
       <c r="N23" t="n">
-        <v>215.8463415097258</v>
+        <v>222.0661178925174</v>
       </c>
       <c r="O23" t="n">
-        <v>252.0987650477383</v>
+        <v>258.3185414305299</v>
       </c>
       <c r="P23" t="n">
-        <v>252.0987650477383</v>
+        <v>258.3185414305299</v>
       </c>
       <c r="Q23" t="n">
-        <v>252.0987650477383</v>
+        <v>323.771691233796</v>
       </c>
       <c r="R23" t="n">
-        <v>252.0987650477383</v>
+        <v>323.771691233796</v>
       </c>
       <c r="S23" t="n">
         <v>323.771691233796</v>
@@ -6029,7 +6029,7 @@
         <v>335.6908127917691</v>
       </c>
       <c r="X23" t="n">
-        <v>311.0950330196744</v>
+        <v>311.0950330196745</v>
       </c>
       <c r="Y23" t="n">
         <v>263.7690985771315</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>252.780463590727</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="C24" t="n">
-        <v>167.3816583235895</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="D24" t="n">
-        <v>92.16239064429482</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="E24" t="n">
-        <v>92.16239064429482</v>
+        <v>6.763585377157291</v>
       </c>
       <c r="F24" t="n">
         <v>6.763585377157291</v>
@@ -6072,16 +6072,16 @@
         <v>6.763585377157291</v>
       </c>
       <c r="L24" t="n">
-        <v>6.763585377157291</v>
+        <v>90.46295441947876</v>
       </c>
       <c r="M24" t="n">
-        <v>90.46295441947876</v>
+        <v>174.1623234618002</v>
       </c>
       <c r="N24" t="n">
-        <v>170.7805307732216</v>
+        <v>254.4798998155431</v>
       </c>
       <c r="O24" t="n">
-        <v>254.4798998155431</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="P24" t="n">
         <v>338.1792688578645</v>
@@ -6090,28 +6090,28 @@
         <v>338.1792688578645</v>
       </c>
       <c r="R24" t="n">
-        <v>338.1792688578645</v>
+        <v>252.780463590727</v>
       </c>
       <c r="S24" t="n">
-        <v>338.1792688578645</v>
+        <v>252.780463590727</v>
       </c>
       <c r="T24" t="n">
-        <v>338.1792688578645</v>
+        <v>177.5611959114323</v>
       </c>
       <c r="U24" t="n">
-        <v>338.1792688578645</v>
+        <v>92.16239064429482</v>
       </c>
       <c r="V24" t="n">
-        <v>252.780463590727</v>
+        <v>92.16239064429482</v>
       </c>
       <c r="W24" t="n">
-        <v>252.780463590727</v>
+        <v>92.16239064429482</v>
       </c>
       <c r="X24" t="n">
-        <v>252.780463590727</v>
+        <v>92.16239064429482</v>
       </c>
       <c r="Y24" t="n">
-        <v>252.780463590727</v>
+        <v>6.763585377157291</v>
       </c>
     </row>
     <row r="25">
@@ -6203,28 +6203,28 @@
         <v>1025.021363618494</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2687840112829</v>
+        <v>886.2687840112826</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0751314131132</v>
+        <v>760.0751314131129</v>
       </c>
       <c r="E26" t="n">
-        <v>599.834254148874</v>
+        <v>599.8342541488737</v>
       </c>
       <c r="F26" t="n">
-        <v>407.552631855971</v>
+        <v>407.5526318559705</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4864210616375</v>
+        <v>199.4864210616372</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07610855563389</v>
+        <v>64.07610855563388</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J26" t="n">
-        <v>171.8183046963238</v>
+        <v>171.8183046963237</v>
       </c>
       <c r="K26" t="n">
         <v>377.4043607994713</v>
@@ -6233,43 +6233,43 @@
         <v>636.7402271432941</v>
       </c>
       <c r="M26" t="n">
-        <v>930.4316025411879</v>
+        <v>930.4316025411878</v>
       </c>
       <c r="N26" t="n">
         <v>1218.623234335057</v>
       </c>
       <c r="O26" t="n">
-        <v>1465.587697007409</v>
+        <v>1465.587697007408</v>
       </c>
       <c r="P26" t="n">
-        <v>1663.092768286575</v>
+        <v>1663.092768286574</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.292413200211</v>
+        <v>1786.29241320021</v>
       </c>
       <c r="R26" t="n">
         <v>1804.829217230179</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.284789810545</v>
+        <v>1790.284789810544</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.615984973873</v>
+        <v>1780.615984973872</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.930001674769</v>
+        <v>1742.930001674768</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.799355170615</v>
+        <v>1633.799355170614</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.480142791092</v>
+        <v>1507.480142791091</v>
       </c>
       <c r="X26" t="n">
-        <v>1359.05360670557</v>
+        <v>1359.053606705569</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.8969159496</v>
+        <v>1187.896915949599</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="C27" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="D27" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="E27" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="F27" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="K27" t="n">
-        <v>75.1017797657038</v>
+        <v>75.10177976570378</v>
       </c>
       <c r="L27" t="n">
         <v>193.8356208840664</v>
@@ -6336,19 +6336,19 @@
         <v>799.6978977085657</v>
       </c>
       <c r="U27" t="n">
-        <v>775.0643652234701</v>
+        <v>560.0740181830263</v>
       </c>
       <c r="V27" t="n">
-        <v>535.6534940218445</v>
+        <v>320.6631469814007</v>
       </c>
       <c r="W27" t="n">
-        <v>481.2452717925796</v>
+        <v>51.26457771169203</v>
       </c>
       <c r="X27" t="n">
-        <v>261.7372774092759</v>
+        <v>46.74693036883215</v>
       </c>
       <c r="Y27" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="E28" t="n">
         <v>106.5492436788398</v>
       </c>
       <c r="F28" t="n">
-        <v>179.7236694169166</v>
+        <v>106.5492436788398</v>
       </c>
       <c r="G28" t="n">
-        <v>179.7236694169166</v>
+        <v>131.0505118066282</v>
       </c>
       <c r="H28" t="n">
-        <v>179.7236694169166</v>
+        <v>131.0505118066282</v>
       </c>
       <c r="I28" t="n">
-        <v>179.7236694169166</v>
+        <v>178.7207821611384</v>
       </c>
       <c r="J28" t="n">
-        <v>270.7780407246702</v>
+        <v>270.7780407246701</v>
       </c>
       <c r="K28" t="n">
-        <v>270.7780407246702</v>
+        <v>270.7780407246701</v>
       </c>
       <c r="L28" t="n">
-        <v>270.7780407246702</v>
+        <v>270.7780407246701</v>
       </c>
       <c r="M28" t="n">
-        <v>270.7780407246702</v>
+        <v>270.7780407246701</v>
       </c>
       <c r="N28" t="n">
-        <v>270.7780407246702</v>
+        <v>270.7780407246701</v>
       </c>
       <c r="O28" t="n">
-        <v>270.7780407246702</v>
+        <v>270.7780407246701</v>
       </c>
       <c r="P28" t="n">
-        <v>270.7780407246702</v>
+        <v>270.7780407246701</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7780407246702</v>
+        <v>270.7780407246701</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7780407246702</v>
+        <v>270.7780407246701</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0483630772728</v>
+        <v>248.0483630772727</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0405152401897</v>
+        <v>237.0405152401896</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4588835527237</v>
+        <v>160.4588835527236</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8643667704908</v>
+        <v>127.8643667704907</v>
       </c>
       <c r="W28" t="n">
-        <v>49.61157533685843</v>
+        <v>49.61157533685842</v>
       </c>
       <c r="X28" t="n">
-        <v>40.44085630837035</v>
+        <v>40.44085630837034</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
     </row>
     <row r="29">
@@ -6452,46 +6452,46 @@
         <v>407.5526318559703</v>
       </c>
       <c r="G29" t="n">
-        <v>199.486421061637</v>
+        <v>199.4864210616372</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07610855563392</v>
+        <v>64.07610855563354</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J29" t="n">
-        <v>171.8183046963245</v>
+        <v>171.8183046963238</v>
       </c>
       <c r="K29" t="n">
-        <v>377.4043607994721</v>
+        <v>377.4043607994714</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7402271432948</v>
+        <v>636.7402271432941</v>
       </c>
       <c r="M29" t="n">
-        <v>930.4316025411886</v>
+        <v>930.4316025411879</v>
       </c>
       <c r="N29" t="n">
         <v>1218.623234335057</v>
       </c>
       <c r="O29" t="n">
-        <v>1465.587697007409</v>
+        <v>1465.587697007408</v>
       </c>
       <c r="P29" t="n">
         <v>1663.092768286575</v>
       </c>
       <c r="Q29" t="n">
-        <v>1786.292413200211</v>
+        <v>1786.29241320021</v>
       </c>
       <c r="R29" t="n">
         <v>1804.829217230179</v>
       </c>
       <c r="S29" t="n">
-        <v>1790.284789810545</v>
+        <v>1790.284789810544</v>
       </c>
       <c r="T29" t="n">
-        <v>1780.615984973873</v>
+        <v>1780.615984973872</v>
       </c>
       <c r="U29" t="n">
         <v>1742.930001674769</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.09658434460359</v>
+        <v>88.47984995607129</v>
       </c>
       <c r="C30" t="n">
-        <v>36.09658434460359</v>
+        <v>88.47984995607129</v>
       </c>
       <c r="D30" t="n">
-        <v>36.09658434460359</v>
+        <v>88.47984995607129</v>
       </c>
       <c r="E30" t="n">
-        <v>36.09658434460359</v>
+        <v>88.47984995607129</v>
       </c>
       <c r="F30" t="n">
-        <v>36.09658434460359</v>
+        <v>88.47984995607129</v>
       </c>
       <c r="G30" t="n">
-        <v>36.09658434460359</v>
+        <v>88.47984995607129</v>
       </c>
       <c r="H30" t="n">
-        <v>36.09658434460359</v>
+        <v>88.47984995607129</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09658434460359</v>
+        <v>88.47984995607129</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="K30" t="n">
-        <v>75.1017797657038</v>
+        <v>75.10177976570378</v>
       </c>
       <c r="L30" t="n">
         <v>193.8356208840664</v>
@@ -6561,31 +6561,31 @@
         <v>801.8233632992861</v>
       </c>
       <c r="Q30" t="n">
-        <v>801.8233632992861</v>
+        <v>795.7248437804923</v>
       </c>
       <c r="R30" t="n">
-        <v>801.8233632992861</v>
+        <v>795.7248437804923</v>
       </c>
       <c r="S30" t="n">
-        <v>801.8233632992861</v>
+        <v>795.7248437804923</v>
       </c>
       <c r="T30" t="n">
-        <v>799.6978977085656</v>
+        <v>793.5993781897718</v>
       </c>
       <c r="U30" t="n">
-        <v>775.0643652234698</v>
+        <v>553.9754986642323</v>
       </c>
       <c r="V30" t="n">
-        <v>531.9846471271039</v>
+        <v>525.8861276083102</v>
       </c>
       <c r="W30" t="n">
-        <v>262.5860778573953</v>
+        <v>471.4779053790452</v>
       </c>
       <c r="X30" t="n">
-        <v>46.7469303688322</v>
+        <v>314.1205430207436</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.09658434460359</v>
+        <v>88.47984995607129</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="D31" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="E31" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="F31" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="G31" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="H31" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="I31" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J31" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="K31" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="L31" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="M31" t="n">
         <v>75.59320118812158</v>
@@ -6658,13 +6658,13 @@
         <v>127.8643667704908</v>
       </c>
       <c r="W31" t="n">
-        <v>49.61157533685849</v>
+        <v>49.61157533685848</v>
       </c>
       <c r="X31" t="n">
-        <v>40.44085630837038</v>
+        <v>40.44085630837036</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>1025.021363618495</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2687840112833</v>
+        <v>886.2687840112831</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0751314131137</v>
+        <v>760.0751314131135</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8342541488746</v>
+        <v>599.8342541488743</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5526318559712</v>
+        <v>407.5526318559711</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4864210616374</v>
+        <v>199.4864210616379</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07610855563387</v>
+        <v>64.07610855563382</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J32" t="n">
         <v>171.8183046963238</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4043607994713</v>
+        <v>377.4043607994714</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7402271432941</v>
+        <v>636.7402271432939</v>
       </c>
       <c r="M32" t="n">
-        <v>930.4316025411879</v>
+        <v>930.4316025411878</v>
       </c>
       <c r="N32" t="n">
         <v>1218.623234335057</v>
       </c>
       <c r="O32" t="n">
-        <v>1465.587697007409</v>
+        <v>1465.587697007408</v>
       </c>
       <c r="P32" t="n">
-        <v>1663.092768286575</v>
+        <v>1663.092768286574</v>
       </c>
       <c r="Q32" t="n">
-        <v>1786.292413200211</v>
+        <v>1786.29241320021</v>
       </c>
       <c r="R32" t="n">
         <v>1804.829217230179</v>
@@ -6734,7 +6734,7 @@
         <v>1742.930001674769</v>
       </c>
       <c r="V32" t="n">
-        <v>1633.799355170615</v>
+        <v>1633.799355170614</v>
       </c>
       <c r="W32" t="n">
         <v>1507.480142791092</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36.09658434460359</v>
+        <v>196.8767005835718</v>
       </c>
       <c r="C33" t="n">
-        <v>36.09658434460359</v>
+        <v>196.8767005835718</v>
       </c>
       <c r="D33" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="E33" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="F33" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="G33" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="K33" t="n">
-        <v>75.1017797657038</v>
+        <v>75.10177976570378</v>
       </c>
       <c r="L33" t="n">
         <v>193.8356208840664</v>
@@ -6798,31 +6798,31 @@
         <v>801.8233632992861</v>
       </c>
       <c r="Q33" t="n">
-        <v>801.8233632992861</v>
+        <v>795.7248437804923</v>
       </c>
       <c r="R33" t="n">
-        <v>801.8233632992861</v>
+        <v>795.7248437804923</v>
       </c>
       <c r="S33" t="n">
-        <v>801.8233632992861</v>
+        <v>795.7248437804923</v>
       </c>
       <c r="T33" t="n">
-        <v>799.6978977085657</v>
+        <v>578.6090311493281</v>
       </c>
       <c r="U33" t="n">
-        <v>560.0740181830263</v>
+        <v>338.9851516237886</v>
       </c>
       <c r="V33" t="n">
-        <v>320.6631469814006</v>
+        <v>266.452916179925</v>
       </c>
       <c r="W33" t="n">
-        <v>51.26457771169198</v>
+        <v>212.0446939506602</v>
       </c>
       <c r="X33" t="n">
-        <v>46.74693036883214</v>
+        <v>207.5270466078003</v>
       </c>
       <c r="Y33" t="n">
-        <v>36.09658434460359</v>
+        <v>196.8767005835718</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.96787202062414</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="C34" t="n">
-        <v>70.96787202062414</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="D34" t="n">
-        <v>70.96787202062414</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="E34" t="n">
-        <v>70.96787202062414</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="F34" t="n">
-        <v>70.96787202062414</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="G34" t="n">
-        <v>70.96787202062414</v>
+        <v>79.80026550808104</v>
       </c>
       <c r="H34" t="n">
-        <v>70.96787202062414</v>
+        <v>79.80026550808104</v>
       </c>
       <c r="I34" t="n">
-        <v>70.96787202062414</v>
+        <v>79.80026550808104</v>
       </c>
       <c r="J34" t="n">
-        <v>70.96787202062414</v>
+        <v>79.80026550808104</v>
       </c>
       <c r="K34" t="n">
-        <v>70.96787202062414</v>
+        <v>79.80026550808104</v>
       </c>
       <c r="L34" t="n">
-        <v>70.96787202062414</v>
+        <v>259.4862081166822</v>
       </c>
       <c r="M34" t="n">
-        <v>70.96787202062414</v>
+        <v>259.4862081166822</v>
       </c>
       <c r="N34" t="n">
-        <v>185.5578703684212</v>
+        <v>259.4862081166822</v>
       </c>
       <c r="O34" t="n">
-        <v>185.5578703684212</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="P34" t="n">
-        <v>185.5578703684212</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.7780407246699</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7780407246699</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="S34" t="n">
-        <v>248.0483630772726</v>
+        <v>248.0483630772724</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0405152401895</v>
+        <v>237.0405152401893</v>
       </c>
       <c r="U34" t="n">
-        <v>160.4588835527236</v>
+        <v>160.4588835527234</v>
       </c>
       <c r="V34" t="n">
-        <v>127.8643667704907</v>
+        <v>127.8643667704906</v>
       </c>
       <c r="W34" t="n">
-        <v>49.61157533685837</v>
+        <v>49.6115753368583</v>
       </c>
       <c r="X34" t="n">
-        <v>40.44085630837032</v>
+        <v>40.44085630837028</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.09658434460359</v>
+        <v>36.09658434460358</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>852.8410737358907</v>
+        <v>852.8410737358895</v>
       </c>
       <c r="C35" t="n">
-        <v>737.7194519151715</v>
+        <v>737.7194519151702</v>
       </c>
       <c r="D35" t="n">
-        <v>635.1567571034941</v>
+        <v>635.156757103493</v>
       </c>
       <c r="E35" t="n">
-        <v>498.5468376257472</v>
+        <v>498.5468376257462</v>
       </c>
       <c r="F35" t="n">
-        <v>329.8961731193364</v>
+        <v>329.8961731193354</v>
       </c>
       <c r="G35" t="n">
-        <v>145.4609201114954</v>
+        <v>145.4609201114945</v>
       </c>
       <c r="H35" t="n">
-        <v>33.68156539198427</v>
+        <v>33.68156539198419</v>
       </c>
       <c r="I35" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J35" t="n">
-        <v>188.2154210457076</v>
+        <v>148.8907010918425</v>
       </c>
       <c r="K35" t="n">
-        <v>416.9621788753964</v>
+        <v>377.6374589215313</v>
       </c>
       <c r="L35" t="n">
-        <v>633.2427530306052</v>
+        <v>426.2612861310151</v>
       </c>
       <c r="M35" t="n">
-        <v>950.0948301550402</v>
+        <v>743.1133632554501</v>
       </c>
       <c r="N35" t="n">
-        <v>1261.44716367545</v>
+        <v>820.5929559149799</v>
       </c>
       <c r="O35" t="n">
-        <v>1297.699587213463</v>
+        <v>1090.718120313873</v>
       </c>
       <c r="P35" t="n">
-        <v>1297.699587213463</v>
+        <v>1311.38389331958</v>
       </c>
       <c r="Q35" t="n">
-        <v>1444.059933853639</v>
+        <v>1457.744239959757</v>
       </c>
       <c r="R35" t="n">
-        <v>1444.059933853639</v>
+        <v>1457.744239959757</v>
       </c>
       <c r="S35" t="n">
-        <v>1452.965642266196</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="T35" t="n">
-        <v>1466.649948372315</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="U35" t="n">
-        <v>1452.594922859703</v>
+        <v>1452.594922859702</v>
       </c>
       <c r="V35" t="n">
-        <v>1367.095234142041</v>
+        <v>1367.09523414204</v>
       </c>
       <c r="W35" t="n">
-        <v>1264.406979549011</v>
+        <v>1264.40697954901</v>
       </c>
       <c r="X35" t="n">
-        <v>1139.611401249981</v>
+        <v>1139.61140124998</v>
       </c>
       <c r="Y35" t="n">
-        <v>992.0856682805035</v>
+        <v>992.0856682805022</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="C36" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="D36" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="E36" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F36" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G36" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H36" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I36" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J36" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K36" t="n">
-        <v>68.33819438854651</v>
+        <v>68.33819438854648</v>
       </c>
       <c r="L36" t="n">
         <v>187.0720355069091</v>
@@ -7035,31 +7035,31 @@
         <v>795.0597779221289</v>
       </c>
       <c r="Q36" t="n">
-        <v>795.0597779221289</v>
+        <v>788.961258403335</v>
       </c>
       <c r="R36" t="n">
-        <v>795.0597779221289</v>
+        <v>759.9296736632884</v>
       </c>
       <c r="S36" t="n">
-        <v>740.816363219656</v>
+        <v>759.9296736632884</v>
       </c>
       <c r="T36" t="n">
-        <v>523.7005505884918</v>
+        <v>542.8138610321242</v>
       </c>
       <c r="U36" t="n">
-        <v>522.6979758898884</v>
+        <v>303.1899815065847</v>
       </c>
       <c r="V36" t="n">
-        <v>518.2395626204586</v>
+        <v>60.11026341021881</v>
       </c>
       <c r="W36" t="n">
-        <v>248.84099335075</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="X36" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="C37" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="D37" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="E37" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F37" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G37" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H37" t="n">
-        <v>99.08767891807</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I37" t="n">
-        <v>144.9857208469735</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J37" t="n">
-        <v>144.9857208469735</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K37" t="n">
-        <v>144.9857208469735</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="L37" t="n">
-        <v>144.9857208469735</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="M37" t="n">
-        <v>144.9857208469735</v>
+        <v>144.9857208469733</v>
       </c>
       <c r="N37" t="n">
-        <v>144.9857208469735</v>
+        <v>144.9857208469733</v>
       </c>
       <c r="O37" t="n">
-        <v>144.9857208469735</v>
+        <v>144.9857208469733</v>
       </c>
       <c r="P37" t="n">
-        <v>144.9857208469735</v>
+        <v>144.9857208469733</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.9857208469735</v>
+        <v>144.9857208469733</v>
       </c>
       <c r="R37" t="n">
-        <v>144.9857208469735</v>
+        <v>144.9857208469733</v>
       </c>
       <c r="S37" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="T37" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="U37" t="n">
-        <v>92.91839161032686</v>
+        <v>92.91839161032672</v>
       </c>
       <c r="V37" t="n">
-        <v>83.95483261458629</v>
+        <v>83.95483261458621</v>
       </c>
       <c r="W37" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="X37" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>852.8410737358911</v>
+        <v>852.8410737358899</v>
       </c>
       <c r="C38" t="n">
-        <v>737.7194519151719</v>
+        <v>737.7194519151708</v>
       </c>
       <c r="D38" t="n">
-        <v>635.1567571034947</v>
+        <v>635.1567571034934</v>
       </c>
       <c r="E38" t="n">
-        <v>498.5468376257479</v>
+        <v>498.5468376257465</v>
       </c>
       <c r="F38" t="n">
-        <v>329.8961731193372</v>
+        <v>329.8961731193358</v>
       </c>
       <c r="G38" t="n">
-        <v>145.4609201114963</v>
+        <v>145.4609201114955</v>
       </c>
       <c r="H38" t="n">
-        <v>33.68156539198419</v>
+        <v>33.68156539198424</v>
       </c>
       <c r="I38" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J38" t="n">
-        <v>188.2154210457077</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K38" t="n">
-        <v>188.2154210457077</v>
+        <v>258.079756797135</v>
       </c>
       <c r="L38" t="n">
-        <v>236.8392482551915</v>
+        <v>540.5763248674989</v>
       </c>
       <c r="M38" t="n">
-        <v>453.8588105319416</v>
+        <v>847.7762041391168</v>
       </c>
       <c r="N38" t="n">
-        <v>765.2111440523516</v>
+        <v>1159.128537659527</v>
       </c>
       <c r="O38" t="n">
-        <v>1035.336308451244</v>
+        <v>1195.380961197539</v>
       </c>
       <c r="P38" t="n">
-        <v>1256.002081456952</v>
+        <v>1416.046734203247</v>
       </c>
       <c r="Q38" t="n">
-        <v>1402.362428097129</v>
+        <v>1416.046734203247</v>
       </c>
       <c r="R38" t="n">
-        <v>1444.059933853639</v>
+        <v>1457.744239959757</v>
       </c>
       <c r="S38" t="n">
-        <v>1452.965642266196</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="T38" t="n">
-        <v>1466.649948372315</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="U38" t="n">
-        <v>1452.594922859704</v>
+        <v>1452.594922859703</v>
       </c>
       <c r="V38" t="n">
-        <v>1367.095234142042</v>
+        <v>1367.095234142041</v>
       </c>
       <c r="W38" t="n">
-        <v>1264.406979549011</v>
+        <v>1264.40697954901</v>
       </c>
       <c r="X38" t="n">
-        <v>1139.611401249982</v>
+        <v>1139.611401249981</v>
       </c>
       <c r="Y38" t="n">
-        <v>992.0856682805037</v>
+        <v>992.0856682805027</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>363.3239191287878</v>
+        <v>83.57641366991925</v>
       </c>
       <c r="C39" t="n">
-        <v>363.3239191287878</v>
+        <v>83.57641366991925</v>
       </c>
       <c r="D39" t="n">
-        <v>363.3239191287878</v>
+        <v>83.57641366991925</v>
       </c>
       <c r="E39" t="n">
-        <v>189.7607152502022</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F39" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G39" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H39" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I39" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J39" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K39" t="n">
-        <v>68.33819438854651</v>
+        <v>68.33819438854648</v>
       </c>
       <c r="L39" t="n">
         <v>187.0720355069091</v>
@@ -7281,22 +7281,22 @@
         <v>795.0597779221289</v>
       </c>
       <c r="T39" t="n">
-        <v>795.0597779221289</v>
+        <v>577.9439652909647</v>
       </c>
       <c r="U39" t="n">
-        <v>794.0572032235256</v>
+        <v>338.3200857654252</v>
       </c>
       <c r="V39" t="n">
-        <v>632.7224883984965</v>
+        <v>333.8616724959954</v>
       </c>
       <c r="W39" t="n">
-        <v>363.3239191287878</v>
+        <v>303.0844080532229</v>
       </c>
       <c r="X39" t="n">
-        <v>363.3239191287878</v>
+        <v>83.57641366991925</v>
       </c>
       <c r="Y39" t="n">
-        <v>363.3239191287878</v>
+        <v>83.57641366991925</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="C40" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="D40" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="E40" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F40" t="n">
-        <v>29.33299896744631</v>
+        <v>125.6681264320642</v>
       </c>
       <c r="G40" t="n">
-        <v>29.33299896744631</v>
+        <v>125.6681264320642</v>
       </c>
       <c r="H40" t="n">
-        <v>29.33299896744631</v>
+        <v>125.6681264320642</v>
       </c>
       <c r="I40" t="n">
-        <v>29.33299896744631</v>
+        <v>125.6681264320642</v>
       </c>
       <c r="J40" t="n">
-        <v>29.33299896744631</v>
+        <v>125.6681264320642</v>
       </c>
       <c r="K40" t="n">
-        <v>29.33299896744631</v>
+        <v>125.6681264320642</v>
       </c>
       <c r="L40" t="n">
-        <v>29.33299896744631</v>
+        <v>125.6681264320642</v>
       </c>
       <c r="M40" t="n">
-        <v>29.33299896744631</v>
+        <v>125.6681264320642</v>
       </c>
       <c r="N40" t="n">
-        <v>145.8690655113002</v>
+        <v>125.6681264320642</v>
       </c>
       <c r="O40" t="n">
-        <v>145.8690655113002</v>
+        <v>125.6681264320642</v>
       </c>
       <c r="P40" t="n">
-        <v>145.8690655113002</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="Q40" t="n">
-        <v>145.8690655113002</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="R40" t="n">
-        <v>145.8690655113002</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="S40" t="n">
-        <v>145.8690655113002</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="T40" t="n">
-        <v>145.8690655113002</v>
+        <v>145.8690655113005</v>
       </c>
       <c r="U40" t="n">
-        <v>92.91839161032669</v>
+        <v>92.91839161032684</v>
       </c>
       <c r="V40" t="n">
-        <v>83.95483261458621</v>
+        <v>83.95483261458627</v>
       </c>
       <c r="W40" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="X40" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>852.841073735891</v>
+        <v>852.8410737358902</v>
       </c>
       <c r="C41" t="n">
-        <v>737.7194519151717</v>
+        <v>737.719451915171</v>
       </c>
       <c r="D41" t="n">
-        <v>635.1567571034944</v>
+        <v>635.1567571034938</v>
       </c>
       <c r="E41" t="n">
-        <v>498.5468376257476</v>
+        <v>498.546837625747</v>
       </c>
       <c r="F41" t="n">
-        <v>329.8961731193367</v>
+        <v>329.8961731193362</v>
       </c>
       <c r="G41" t="n">
-        <v>145.4609201114955</v>
+        <v>145.4609201114953</v>
       </c>
       <c r="H41" t="n">
-        <v>33.68156539198427</v>
+        <v>33.68156539198416</v>
       </c>
       <c r="I41" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J41" t="n">
         <v>188.2154210457076</v>
       </c>
       <c r="K41" t="n">
-        <v>416.9621788753964</v>
+        <v>322.2556470589018</v>
       </c>
       <c r="L41" t="n">
-        <v>465.5860060848802</v>
+        <v>370.8794742683856</v>
       </c>
       <c r="M41" t="n">
-        <v>782.4380832093152</v>
+        <v>687.7315513928206</v>
       </c>
       <c r="N41" t="n">
-        <v>859.9176758688451</v>
+        <v>765.2111440523505</v>
       </c>
       <c r="O41" t="n">
-        <v>1035.336308451245</v>
+        <v>1035.336308451243</v>
       </c>
       <c r="P41" t="n">
-        <v>1256.002081456953</v>
+        <v>1256.002081456951</v>
       </c>
       <c r="Q41" t="n">
-        <v>1402.362428097129</v>
+        <v>1402.362428097128</v>
       </c>
       <c r="R41" t="n">
-        <v>1444.059933853639</v>
+        <v>1444.059933853638</v>
       </c>
       <c r="S41" t="n">
-        <v>1452.965642266196</v>
+        <v>1452.965642266195</v>
       </c>
       <c r="T41" t="n">
-        <v>1466.649948372315</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="U41" t="n">
-        <v>1452.594922859704</v>
+        <v>1452.594922859703</v>
       </c>
       <c r="V41" t="n">
-        <v>1367.095234142042</v>
+        <v>1367.095234142041</v>
       </c>
       <c r="W41" t="n">
-        <v>1264.406979549011</v>
+        <v>1264.40697954901</v>
       </c>
       <c r="X41" t="n">
-        <v>1139.611401249982</v>
+        <v>1139.611401249981</v>
       </c>
       <c r="Y41" t="n">
-        <v>992.0856682805037</v>
+        <v>992.085668280503</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>156.2750006323238</v>
+        <v>300.6922263010836</v>
       </c>
       <c r="C42" t="n">
-        <v>156.2750006323238</v>
+        <v>300.6922263010836</v>
       </c>
       <c r="D42" t="n">
-        <v>156.2750006323238</v>
+        <v>139.9121100621153</v>
       </c>
       <c r="E42" t="n">
-        <v>156.2750006323238</v>
+        <v>139.9121100621153</v>
       </c>
       <c r="F42" t="n">
-        <v>156.2750006323238</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G42" t="n">
-        <v>156.2750006323238</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H42" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I42" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J42" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K42" t="n">
-        <v>68.33819438854651</v>
+        <v>68.33819438854648</v>
       </c>
       <c r="L42" t="n">
         <v>187.0720355069091</v>
@@ -7521,19 +7521,19 @@
         <v>795.0597779221289</v>
       </c>
       <c r="U42" t="n">
-        <v>555.4358983965894</v>
+        <v>794.0572032235256</v>
       </c>
       <c r="V42" t="n">
-        <v>312.3561803002235</v>
+        <v>789.5987899540959</v>
       </c>
       <c r="W42" t="n">
-        <v>156.2750006323238</v>
+        <v>520.2002206843872</v>
       </c>
       <c r="X42" t="n">
-        <v>156.2750006323238</v>
+        <v>300.6922263010836</v>
       </c>
       <c r="Y42" t="n">
-        <v>156.2750006323238</v>
+        <v>300.6922263010836</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="C43" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="D43" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="E43" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F43" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G43" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H43" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I43" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J43" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K43" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="L43" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="M43" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="N43" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="O43" t="n">
-        <v>145.8690655113005</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="P43" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="Q43" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="R43" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="S43" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="T43" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="U43" t="n">
-        <v>92.91839161032686</v>
+        <v>92.91839161032667</v>
       </c>
       <c r="V43" t="n">
-        <v>83.95483261458629</v>
+        <v>83.95483261458618</v>
       </c>
       <c r="W43" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="X43" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>852.8410737358911</v>
+        <v>852.8410737358901</v>
       </c>
       <c r="C44" t="n">
-        <v>737.7194519151719</v>
+        <v>737.719451915171</v>
       </c>
       <c r="D44" t="n">
-        <v>635.1567571034944</v>
+        <v>635.1567571034936</v>
       </c>
       <c r="E44" t="n">
-        <v>498.5468376257476</v>
+        <v>498.5468376257465</v>
       </c>
       <c r="F44" t="n">
-        <v>329.8961731193367</v>
+        <v>329.8961731193357</v>
       </c>
       <c r="G44" t="n">
-        <v>145.4609201114957</v>
+        <v>145.4609201114947</v>
       </c>
       <c r="H44" t="n">
-        <v>33.68156539198427</v>
+        <v>33.68156539198421</v>
       </c>
       <c r="I44" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J44" t="n">
         <v>188.2154210457076</v>
@@ -7652,46 +7652,46 @@
         <v>416.9621788753964</v>
       </c>
       <c r="L44" t="n">
-        <v>627.3422296479437</v>
+        <v>465.5860060848802</v>
       </c>
       <c r="M44" t="n">
-        <v>944.1943067723787</v>
+        <v>782.4380832093152</v>
       </c>
       <c r="N44" t="n">
-        <v>1021.673899431909</v>
+        <v>1093.790416729725</v>
       </c>
       <c r="O44" t="n">
-        <v>1057.926322969921</v>
+        <v>1130.042840267738</v>
       </c>
       <c r="P44" t="n">
-        <v>1278.592095975629</v>
+        <v>1256.002081456951</v>
       </c>
       <c r="Q44" t="n">
-        <v>1424.952442615805</v>
+        <v>1402.362428097128</v>
       </c>
       <c r="R44" t="n">
-        <v>1466.649948372315</v>
+        <v>1444.059933853638</v>
       </c>
       <c r="S44" t="n">
-        <v>1466.649948372315</v>
+        <v>1452.965642266195</v>
       </c>
       <c r="T44" t="n">
-        <v>1466.649948372315</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="U44" t="n">
-        <v>1452.594922859704</v>
+        <v>1452.594922859703</v>
       </c>
       <c r="V44" t="n">
-        <v>1367.095234142042</v>
+        <v>1367.095234142041</v>
       </c>
       <c r="W44" t="n">
-        <v>1264.406979549012</v>
+        <v>1264.40697954901</v>
       </c>
       <c r="X44" t="n">
-        <v>1139.611401249982</v>
+        <v>1139.611401249981</v>
       </c>
       <c r="Y44" t="n">
-        <v>992.0856682805038</v>
+        <v>992.0856682805028</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.33299896744631</v>
+        <v>128.7939445419821</v>
       </c>
       <c r="C45" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="D45" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="E45" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F45" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G45" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H45" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I45" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J45" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K45" t="n">
-        <v>68.33819438854651</v>
+        <v>68.33819438854648</v>
       </c>
       <c r="L45" t="n">
         <v>187.0720355069091</v>
@@ -7755,22 +7755,22 @@
         <v>601.6560039672556</v>
       </c>
       <c r="T45" t="n">
-        <v>601.6560039672556</v>
+        <v>384.5401913360914</v>
       </c>
       <c r="U45" t="n">
-        <v>362.0321244417162</v>
+        <v>383.5376166374881</v>
       </c>
       <c r="V45" t="n">
-        <v>357.5737111722864</v>
+        <v>379.0792033680583</v>
       </c>
       <c r="W45" t="n">
-        <v>248.84099335075</v>
+        <v>348.3019389252858</v>
       </c>
       <c r="X45" t="n">
-        <v>29.33299896744631</v>
+        <v>128.7939445419821</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.33299896744631</v>
+        <v>128.7939445419821</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="C46" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="D46" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="E46" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F46" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G46" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H46" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I46" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J46" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K46" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="L46" t="n">
-        <v>29.33299896744631</v>
+        <v>145.8690655113004</v>
       </c>
       <c r="M46" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113004</v>
       </c>
       <c r="N46" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113004</v>
       </c>
       <c r="O46" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113004</v>
       </c>
       <c r="P46" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113004</v>
       </c>
       <c r="Q46" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113004</v>
       </c>
       <c r="R46" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113004</v>
       </c>
       <c r="S46" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113004</v>
       </c>
       <c r="T46" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113004</v>
       </c>
       <c r="U46" t="n">
-        <v>92.91839161032686</v>
+        <v>92.91839161032678</v>
       </c>
       <c r="V46" t="n">
-        <v>83.95483261458629</v>
+        <v>83.95483261458624</v>
       </c>
       <c r="W46" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="X46" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.33299896744631</v>
+        <v>29.33299896744628</v>
       </c>
     </row>
   </sheetData>
@@ -8772,19 +8772,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>120.3713709098106</v>
+        <v>204.9161881242767</v>
       </c>
       <c r="M12" t="n">
-        <v>201.1586111617381</v>
+        <v>116.6137939472721</v>
       </c>
       <c r="N12" t="n">
-        <v>143.6737839116512</v>
+        <v>143.6737839116513</v>
       </c>
       <c r="O12" t="n">
-        <v>205.1857278322749</v>
+        <v>205.185727832275</v>
       </c>
       <c r="P12" t="n">
-        <v>205.1943705594503</v>
+        <v>205.1943705594504</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9006,22 +9006,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>131.9742862901103</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>120.3713709098106</v>
+        <v>204.9161881242767</v>
       </c>
       <c r="M15" t="n">
-        <v>201.1586111617381</v>
+        <v>201.1586111617382</v>
       </c>
       <c r="N15" t="n">
-        <v>183.0729712056918</v>
+        <v>143.6737839116513</v>
       </c>
       <c r="O15" t="n">
-        <v>205.1857278322749</v>
+        <v>205.185727832275</v>
       </c>
       <c r="P15" t="n">
-        <v>205.1943705594503</v>
+        <v>120.6495533449843</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,19 +9243,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>131.9742862901103</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>201.5002359135911</v>
+        <v>204.9161881242767</v>
       </c>
       <c r="M18" t="n">
-        <v>201.1586111617381</v>
+        <v>158.3434716570121</v>
       </c>
       <c r="N18" t="n">
         <v>186.4889234163774</v>
       </c>
       <c r="O18" t="n">
-        <v>205.1857278322749</v>
+        <v>205.185727832275</v>
       </c>
       <c r="P18" t="n">
         <v>120.6495533449843</v>
@@ -9483,19 +9483,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>162.1010486195505</v>
+        <v>120.3713709098106</v>
       </c>
       <c r="M21" t="n">
-        <v>116.6137939472721</v>
+        <v>158.3434716570121</v>
       </c>
       <c r="N21" t="n">
         <v>186.4889234163774</v>
       </c>
       <c r="O21" t="n">
-        <v>205.1857278322749</v>
+        <v>205.185727832275</v>
       </c>
       <c r="P21" t="n">
-        <v>205.1943705594503</v>
+        <v>205.1943705594504</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9720,7 +9720,7 @@
         <v>131.9742862901103</v>
       </c>
       <c r="L24" t="n">
-        <v>120.3713709098106</v>
+        <v>204.9161881242767</v>
       </c>
       <c r="M24" t="n">
         <v>201.1586111617382</v>
@@ -9732,7 +9732,7 @@
         <v>205.185727832275</v>
       </c>
       <c r="P24" t="n">
-        <v>205.1943705594504</v>
+        <v>120.6495533449843</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23258,25 +23258,25 @@
         <v>169.9757986516689</v>
       </c>
       <c r="C11" t="n">
-        <v>61.54923844054832</v>
+        <v>61.54923844054825</v>
       </c>
       <c r="D11" t="n">
-        <v>133.6607179160628</v>
+        <v>128.359753212862</v>
       </c>
       <c r="E11" t="n">
         <v>167.3674703354717</v>
       </c>
       <c r="F11" t="n">
-        <v>199.087807913849</v>
+        <v>114.5429906993829</v>
       </c>
       <c r="G11" t="n">
-        <v>214.7145505302649</v>
+        <v>130.1697333157987</v>
       </c>
       <c r="H11" t="n">
-        <v>71.24054793933182</v>
+        <v>142.7852112248185</v>
       </c>
       <c r="I11" t="n">
-        <v>36.42873081279485</v>
+        <v>36.42873081279488</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>18.30111863218016</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>32.22352466852152</v>
+        <v>116.7683418829876</v>
       </c>
       <c r="W11" t="n">
-        <v>133.7850220996024</v>
+        <v>133.7850220996025</v>
       </c>
       <c r="X11" t="n">
         <v>155.6712725685417</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1741256922854</v>
+        <v>178.1741256922855</v>
       </c>
     </row>
     <row r="12">
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.65444814870483</v>
+        <v>1.654448148704759</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.9374544619618</v>
+        <v>169.9757986516688</v>
       </c>
       <c r="C14" t="n">
-        <v>146.0940556550142</v>
+        <v>146.0940556550143</v>
       </c>
       <c r="D14" t="n">
-        <v>133.6607179160627</v>
+        <v>133.6607179160628</v>
       </c>
       <c r="E14" t="n">
-        <v>82.82265312100549</v>
+        <v>167.3674703354716</v>
       </c>
       <c r="F14" t="n">
-        <v>199.0878079138488</v>
+        <v>199.087807913849</v>
       </c>
       <c r="G14" t="n">
-        <v>214.7145505302647</v>
+        <v>214.7145505302648</v>
       </c>
       <c r="H14" t="n">
-        <v>142.7852112248183</v>
+        <v>142.7852112248184</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>36.4287308127948</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23.12798498931293</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>18.30111863217996</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>46.03812530998758</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>32.22352466852135</v>
+        <v>32.22352466852136</v>
       </c>
       <c r="W14" t="n">
-        <v>133.7850220996023</v>
+        <v>49.24020488513622</v>
       </c>
       <c r="X14" t="n">
-        <v>155.6712725685415</v>
+        <v>155.6712725685416</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.62930847781922</v>
+        <v>106.6294624067984</v>
       </c>
     </row>
     <row r="15">
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>804772.7587332535</v>
+        <v>804772.7587332532</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>727593.896020579</v>
       </c>
       <c r="C2" t="n">
-        <v>727593.8960205793</v>
+        <v>727593.8960205792</v>
       </c>
       <c r="D2" t="n">
         <v>727593.8960205794</v>
       </c>
       <c r="E2" t="n">
-        <v>626991.8234418945</v>
+        <v>626991.8234418946</v>
       </c>
       <c r="F2" t="n">
-        <v>626991.8234418946</v>
+        <v>626991.8234418948</v>
       </c>
       <c r="G2" t="n">
-        <v>729067.8028082914</v>
+        <v>729067.8028082916</v>
       </c>
       <c r="H2" t="n">
-        <v>729067.8028082919</v>
+        <v>729067.8028082915</v>
       </c>
       <c r="I2" t="n">
-        <v>729067.8028082915</v>
+        <v>729067.8028082916</v>
       </c>
       <c r="J2" t="n">
-        <v>729067.8028082913</v>
+        <v>729067.8028082916</v>
       </c>
       <c r="K2" t="n">
-        <v>729067.8028082914</v>
+        <v>729067.8028082916</v>
       </c>
       <c r="L2" t="n">
         <v>729067.8028082915</v>
       </c>
       <c r="M2" t="n">
-        <v>729067.8028082917</v>
+        <v>729067.8028082919</v>
       </c>
       <c r="N2" t="n">
-        <v>729067.8028082923</v>
+        <v>729067.8028082916</v>
       </c>
       <c r="O2" t="n">
-        <v>729067.8028082915</v>
+        <v>729067.8028082924</v>
       </c>
       <c r="P2" t="n">
-        <v>729067.8028082917</v>
+        <v>729067.8028082914</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>272248.040755637</v>
       </c>
       <c r="F3" t="n">
-        <v>1.364242052659392e-10</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="G3" t="n">
         <v>105057.1604753343</v>
@@ -26390,19 +26390,19 @@
         <v>161150.2341536786</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.5409215677243e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>105057.1604753343</v>
+        <v>105057.1604753344</v>
       </c>
       <c r="M3" t="n">
-        <v>18715.71856690191</v>
+        <v>18715.71856690189</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65215.19438069706</v>
+        <v>65215.19438069718</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,7 +26433,7 @@
         <v>448063.6435868028</v>
       </c>
       <c r="H4" t="n">
-        <v>448063.6435868027</v>
+        <v>448063.6435868026</v>
       </c>
       <c r="I4" t="n">
         <v>448063.6435868026</v>
@@ -26445,10 +26445,10 @@
         <v>448080.6067479625</v>
       </c>
       <c r="L4" t="n">
-        <v>448080.6067479626</v>
+        <v>448080.6067479625</v>
       </c>
       <c r="M4" t="n">
-        <v>447701.1427578537</v>
+        <v>447701.1427578538</v>
       </c>
       <c r="N4" t="n">
         <v>447701.1427578537</v>
@@ -26491,25 +26491,25 @@
         <v>35611.42180862118</v>
       </c>
       <c r="J5" t="n">
+        <v>47598.27644989196</v>
+      </c>
+      <c r="K5" t="n">
+        <v>47598.27644989196</v>
+      </c>
+      <c r="L5" t="n">
         <v>47598.27644989197</v>
       </c>
-      <c r="K5" t="n">
-        <v>47598.27644989197</v>
-      </c>
-      <c r="L5" t="n">
-        <v>47598.27644989198</v>
-      </c>
       <c r="M5" t="n">
-        <v>44424.71624350354</v>
+        <v>44424.71624350353</v>
       </c>
       <c r="N5" t="n">
-        <v>44424.71624350354</v>
+        <v>44424.71624350353</v>
       </c>
       <c r="O5" t="n">
-        <v>44424.71624350354</v>
+        <v>44424.71624350353</v>
       </c>
       <c r="P5" t="n">
-        <v>44424.71624350354</v>
+        <v>44424.71624350353</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>210847.1293766837</v>
+        <v>210842.6629924785</v>
       </c>
       <c r="C6" t="n">
-        <v>210847.1293766839</v>
+        <v>210842.6629924786</v>
       </c>
       <c r="D6" t="n">
-        <v>210847.1293766841</v>
+        <v>210842.6629924789</v>
       </c>
       <c r="E6" t="n">
-        <v>-47362.9605647234</v>
+        <v>-47672.28171431842</v>
       </c>
       <c r="F6" t="n">
-        <v>224885.0801909136</v>
+        <v>224575.7590413187</v>
       </c>
       <c r="G6" t="n">
-        <v>140335.5769375332</v>
+        <v>140335.5769375334</v>
       </c>
       <c r="H6" t="n">
-        <v>245392.737412868</v>
+        <v>245392.7374128677</v>
       </c>
       <c r="I6" t="n">
         <v>245392.7374128678</v>
       </c>
       <c r="J6" t="n">
-        <v>72238.68545675813</v>
+        <v>72238.6854567586</v>
       </c>
       <c r="K6" t="n">
-        <v>233388.9196104369</v>
+        <v>233388.9196104371</v>
       </c>
       <c r="L6" t="n">
         <v>128331.7591351026</v>
       </c>
       <c r="M6" t="n">
-        <v>218226.2252400326</v>
+        <v>218226.2252400327</v>
       </c>
       <c r="N6" t="n">
-        <v>236941.943806935</v>
+        <v>236941.9438069344</v>
       </c>
       <c r="O6" t="n">
-        <v>171726.7494262371</v>
+        <v>171726.749426238</v>
       </c>
       <c r="P6" t="n">
-        <v>236941.9438069345</v>
+        <v>236941.9438069342</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>204.1114417261644</v>
+      </c>
+      <c r="F2" t="n">
         <v>204.1114417261645</v>
       </c>
-      <c r="F2" t="n">
-        <v>204.1114417261646</v>
-      </c>
       <c r="G2" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="H2" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="I2" t="n">
         <v>335.4328923203324</v>
@@ -26716,16 +26716,16 @@
         <v>212.8404435700394</v>
       </c>
       <c r="M2" t="n">
+        <v>236.2350917786668</v>
+      </c>
+      <c r="N2" t="n">
         <v>236.2350917786667</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>236.2350917786668</v>
       </c>
-      <c r="O2" t="n">
-        <v>236.2350917786667</v>
-      </c>
       <c r="P2" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.54481721446604</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="F4" t="n">
-        <v>84.54481721446604</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="G4" t="n">
-        <v>84.54481721446604</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="H4" t="n">
-        <v>84.54481721446604</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="I4" t="n">
         <v>84.54481721446614</v>
       </c>
       <c r="J4" t="n">
-        <v>451.2073043075449</v>
+        <v>451.2073043075447</v>
       </c>
       <c r="K4" t="n">
-        <v>451.2073043075449</v>
+        <v>451.2073043075447</v>
       </c>
       <c r="L4" t="n">
-        <v>451.2073043075449</v>
+        <v>451.2073043075447</v>
       </c>
       <c r="M4" t="n">
-        <v>366.6624870930788</v>
+        <v>366.6624870930785</v>
       </c>
       <c r="N4" t="n">
-        <v>366.6624870930788</v>
+        <v>366.6624870930785</v>
       </c>
       <c r="O4" t="n">
-        <v>366.6624870930788</v>
+        <v>366.6624870930785</v>
       </c>
       <c r="P4" t="n">
-        <v>366.6624870930788</v>
+        <v>366.6624870930785</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="F2" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="G2" t="n">
         <v>131.3214505941679</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.51899297587141</v>
+        <v>81.51899297587138</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3214505941679</v>
+        <v>131.321450594168</v>
       </c>
       <c r="M2" t="n">
-        <v>23.39464820862739</v>
+        <v>23.39464820862736</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.51899297587133</v>
+        <v>81.51899297587147</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.54481721446604</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>366.6624870930787</v>
+        <v>366.6624870930785</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="K2" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
         <v>131.3214505941679</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.51899297587141</v>
+        <v>81.51899297587138</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>84.54481721446604</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,37 +28087,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="C11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="D11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="E11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="F11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="G11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="H11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="I11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="J11" t="n">
-        <v>152.7027579678908</v>
+        <v>75.74779675011997</v>
       </c>
       <c r="K11" t="n">
-        <v>5.177760637567033</v>
+        <v>56.69792425098978</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>35.42984023518957</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28129,34 +28129,34 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.34037157088122</v>
+        <v>13.34037157088121</v>
       </c>
       <c r="Q11" t="n">
         <v>88.39635779869047</v>
       </c>
       <c r="R11" t="n">
-        <v>204.1114417261645</v>
+        <v>194.1163990953233</v>
       </c>
       <c r="S11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="T11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="U11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="V11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="W11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="X11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
     </row>
     <row r="12">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>97.58361126979113</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.037534323605971</v>
       </c>
       <c r="R12" t="n">
         <v>134.3151594521598</v>
       </c>
       <c r="S12" t="n">
-        <v>110.2320666436956</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T12" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="U12" t="n">
-        <v>204.1114417261645</v>
+        <v>152.6828235158179</v>
       </c>
       <c r="V12" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="W12" t="n">
-        <v>204.1114417261645</v>
+        <v>182.1597663625454</v>
       </c>
       <c r="X12" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="Y12" t="n">
-        <v>138.8394689195596</v>
+        <v>204.1114417261644</v>
       </c>
     </row>
     <row r="13">
@@ -28245,25 +28245,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>204.1114417261645</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>204.1114417261645</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>204.1114417261645</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>204.1114417261645</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="G13" t="n">
-        <v>204.1114417261645</v>
+        <v>168.6953110816783</v>
       </c>
       <c r="H13" t="n">
-        <v>177.3698427115573</v>
+        <v>165.7758191012691</v>
       </c>
       <c r="I13" t="n">
         <v>164.6886553331604</v>
@@ -28275,16 +28275,16 @@
         <v>66.39518063773789</v>
       </c>
       <c r="L13" t="n">
-        <v>31.33949144013919</v>
+        <v>115.8843086546053</v>
       </c>
       <c r="M13" t="n">
-        <v>24.36038278515807</v>
+        <v>108.9051999996242</v>
       </c>
       <c r="N13" t="n">
-        <v>15.68403999776783</v>
+        <v>15.68403999776782</v>
       </c>
       <c r="O13" t="n">
-        <v>36.70659427566594</v>
+        <v>100.13998790629</v>
       </c>
       <c r="P13" t="n">
         <v>57.81777162581081</v>
@@ -28296,25 +28296,25 @@
         <v>203.184286794587</v>
       </c>
       <c r="S13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="T13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="U13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="V13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="W13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="X13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261644</v>
       </c>
     </row>
     <row r="14">
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="C14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="D14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="E14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="F14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="G14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="H14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="I14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="J14" t="n">
-        <v>152.7027579678906</v>
+        <v>75.74779675011997</v>
       </c>
       <c r="K14" t="n">
-        <v>5.177760637567033</v>
+        <v>7.582947271713227</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.34037157088122</v>
+        <v>97.88518878534734</v>
       </c>
       <c r="Q14" t="n">
         <v>88.39635779869047</v>
       </c>
       <c r="R14" t="n">
-        <v>204.1114417261646</v>
+        <v>194.1163990953233</v>
       </c>
       <c r="S14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="T14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="U14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="V14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="W14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="X14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
     </row>
     <row r="15">
@@ -28412,7 +28412,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>90.62373963911887</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.037534323605975</v>
+        <v>6.037534323605971</v>
       </c>
       <c r="R15" t="n">
-        <v>134.3151594521598</v>
+        <v>49.77034223769364</v>
       </c>
       <c r="S15" t="n">
         <v>191.4697362153245</v>
       </c>
       <c r="T15" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="U15" t="n">
-        <v>204.1114417261646</v>
+        <v>201.3810550453951</v>
       </c>
       <c r="V15" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="W15" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="X15" t="n">
-        <v>132.7680972250046</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.1114417261646</v>
+        <v>138.8394689195595</v>
       </c>
     </row>
     <row r="16">
@@ -28482,19 +28482,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>204.1114417261646</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="E16" t="n">
-        <v>204.1114417261646</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>204.1114417261646</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
         <v>168.6953110816783</v>
@@ -28503,25 +28503,25 @@
         <v>165.7758191012691</v>
       </c>
       <c r="I16" t="n">
-        <v>165.0949423238467</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="J16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="K16" t="n">
         <v>66.39518063773789</v>
       </c>
       <c r="L16" t="n">
-        <v>31.33949144013919</v>
+        <v>115.8843086546053</v>
       </c>
       <c r="M16" t="n">
-        <v>24.36038278515807</v>
+        <v>54.91344725122917</v>
       </c>
       <c r="N16" t="n">
-        <v>15.68403999776783</v>
+        <v>15.68403999776782</v>
       </c>
       <c r="O16" t="n">
-        <v>36.70659427566594</v>
+        <v>36.70659427566592</v>
       </c>
       <c r="P16" t="n">
         <v>57.81777162581081</v>
@@ -28533,25 +28533,25 @@
         <v>203.184286794587</v>
       </c>
       <c r="S16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="T16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="U16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="V16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="X16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="C17" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="D17" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="E17" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="F17" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="G17" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="H17" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="I17" t="n">
         <v>240.5401725389593</v>
@@ -28588,10 +28588,10 @@
         <v>75.74779675011997</v>
       </c>
       <c r="K17" t="n">
-        <v>5.177760637567033</v>
+        <v>5.177760637567026</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2.405186634146204</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28603,34 +28603,34 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.34037157088122</v>
+        <v>13.34037157088121</v>
       </c>
       <c r="Q17" t="n">
         <v>88.39635779869047</v>
       </c>
       <c r="R17" t="n">
-        <v>194.1163990953233</v>
+        <v>278.6612163097895</v>
       </c>
       <c r="S17" t="n">
         <v>227.2394267154775</v>
       </c>
       <c r="T17" t="n">
-        <v>294.8094554957761</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U17" t="n">
         <v>250.1495670361522</v>
       </c>
       <c r="V17" t="n">
-        <v>335.4328923203325</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="X17" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="Y17" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
     </row>
     <row r="18">
@@ -28661,10 +28661,10 @@
         <v>125.6725816482287</v>
       </c>
       <c r="I18" t="n">
-        <v>22.59420527314909</v>
+        <v>107.1390224876151</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.85943295535303</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3151594521598</v>
+        <v>49.77034223769364</v>
       </c>
       <c r="S18" t="n">
-        <v>174.8996284917819</v>
+        <v>106.9249190008584</v>
       </c>
       <c r="T18" t="n">
         <v>214.9446545048526</v>
@@ -28703,13 +28703,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>182.1597663625456</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>148.8833737605748</v>
       </c>
       <c r="Y18" t="n">
-        <v>138.8394689195596</v>
+        <v>138.8394689195595</v>
       </c>
     </row>
     <row r="19">
@@ -28755,10 +28755,10 @@
         <v>24.36038278515807</v>
       </c>
       <c r="N19" t="n">
-        <v>15.68403999776783</v>
+        <v>15.68403999776782</v>
       </c>
       <c r="O19" t="n">
-        <v>36.70659427566594</v>
+        <v>36.70659427566592</v>
       </c>
       <c r="P19" t="n">
         <v>57.81777162581081</v>
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="C20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="D20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="E20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="F20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="G20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="H20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="I20" t="n">
-        <v>312.9370676763908</v>
+        <v>240.5401725389593</v>
       </c>
       <c r="J20" t="n">
-        <v>75.74779675011997</v>
+        <v>160.2926139645861</v>
       </c>
       <c r="K20" t="n">
-        <v>5.177760637567033</v>
+        <v>5.177760637567026</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,10 +28840,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.34037157088122</v>
+        <v>13.34037157088121</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.39635779869047</v>
+        <v>90.80154443283666</v>
       </c>
       <c r="R20" t="n">
         <v>194.1163990953233</v>
@@ -28858,16 +28858,16 @@
         <v>250.1495670361522</v>
       </c>
       <c r="V20" t="n">
-        <v>335.4328923203325</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="X20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="Y20" t="n">
-        <v>335.4328923203325</v>
+        <v>335.4328923203324</v>
       </c>
     </row>
     <row r="21">
@@ -28877,16 +28877,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>92.2056771831997</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>119.0886108454701</v>
       </c>
       <c r="D21" t="n">
-        <v>74.62749786211251</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>87.28275462533364</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.037534323605975</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>134.3151594521598</v>
@@ -28937,16 +28937,16 @@
         <v>237.2276407302841</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>156.1041037009361</v>
       </c>
       <c r="W21" t="n">
-        <v>192.2375085745099</v>
+        <v>182.1597663625454</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>138.8394689195595</v>
       </c>
     </row>
     <row r="22">
@@ -28992,10 +28992,10 @@
         <v>24.36038278515807</v>
       </c>
       <c r="N22" t="n">
-        <v>15.68403999776783</v>
+        <v>15.68403999776782</v>
       </c>
       <c r="O22" t="n">
-        <v>36.70659427566594</v>
+        <v>36.70659427566592</v>
       </c>
       <c r="P22" t="n">
         <v>57.81777162581081</v>
@@ -29062,7 +29062,7 @@
         <v>75.74779675011997</v>
       </c>
       <c r="K23" t="n">
-        <v>5.177760637567033</v>
+        <v>5.177760637567026</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,22 +29071,22 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>6.282602406860192</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.34037157088122</v>
+        <v>13.34037157088121</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.39635779869047</v>
+        <v>154.5106505292623</v>
       </c>
       <c r="R23" t="n">
         <v>194.1163990953233</v>
       </c>
       <c r="S23" t="n">
-        <v>299.6363218529095</v>
+        <v>227.2394267154775</v>
       </c>
       <c r="T23" t="n">
         <v>222.4125603583446</v>
@@ -29117,16 +29117,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>102.9733343098998</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>84.70524007407678</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>74.2786219054622</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7380872222379</v>
@@ -29159,22 +29159,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.037534323605975</v>
+        <v>6.037534323605971</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3151594521598</v>
+        <v>49.77034223769364</v>
       </c>
       <c r="S24" t="n">
         <v>191.4697362153245</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9446545048526</v>
+        <v>140.4775795023508</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2276407302841</v>
+        <v>152.6828235158179</v>
       </c>
       <c r="V24" t="n">
-        <v>156.1041037009361</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
@@ -29183,7 +29183,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>138.8394689195595</v>
       </c>
     </row>
     <row r="25">
@@ -29229,10 +29229,10 @@
         <v>24.36038278515807</v>
       </c>
       <c r="N25" t="n">
-        <v>15.68403999776783</v>
+        <v>15.68403999776782</v>
       </c>
       <c r="O25" t="n">
-        <v>36.70659427566594</v>
+        <v>36.70659427566592</v>
       </c>
       <c r="P25" t="n">
         <v>57.81777162581081</v>
@@ -29305,13 +29305,13 @@
         <v>212.8404435700393</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700392</v>
       </c>
       <c r="N26" t="n">
         <v>212.8404435700393</v>
       </c>
       <c r="O26" t="n">
-        <v>212.84044357004</v>
+        <v>212.8404435700393</v>
       </c>
       <c r="P26" t="n">
         <v>212.8404435700393</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.037534323605975</v>
+        <v>6.037534323605971</v>
       </c>
       <c r="R27" t="n">
         <v>134.3151594521598</v>
@@ -29408,19 +29408,19 @@
         <v>212.8404435700393</v>
       </c>
       <c r="U27" t="n">
-        <v>212.8404435700393</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>3.632158425792937</v>
       </c>
       <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
         <v>212.8404435700393</v>
       </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>212.8404435700393</v>
       </c>
     </row>
     <row r="28">
@@ -29442,19 +29442,19 @@
         <v>212.8404435700393</v>
       </c>
       <c r="F28" t="n">
-        <v>212.8404435700393</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.6953110816783</v>
+        <v>193.4440667663131</v>
       </c>
       <c r="H28" t="n">
         <v>165.7758191012691</v>
       </c>
       <c r="I28" t="n">
-        <v>164.6886553331604</v>
+        <v>212.8404435700393</v>
       </c>
       <c r="J28" t="n">
-        <v>211.8274261399604</v>
+        <v>212.8404435700393</v>
       </c>
       <c r="K28" t="n">
         <v>66.39518063773789</v>
@@ -29466,10 +29466,10 @@
         <v>24.36038278515807</v>
       </c>
       <c r="N28" t="n">
-        <v>15.68403999776783</v>
+        <v>15.68403999776782</v>
       </c>
       <c r="O28" t="n">
-        <v>36.70659427566594</v>
+        <v>36.70659427566592</v>
       </c>
       <c r="P28" t="n">
         <v>57.81777162581081</v>
@@ -29612,7 +29612,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J30" t="n">
-        <v>51.85943295535303</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.037534323605975</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.3151594521598</v>
@@ -29645,19 +29645,19 @@
         <v>212.8404435700393</v>
       </c>
       <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
         <v>212.8404435700393</v>
       </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>212.8404435700393</v>
       </c>
       <c r="X30" t="n">
-        <v>3.632158425793165</v>
+        <v>61.52912570475203</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.8404435700393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29700,13 +29700,13 @@
         <v>31.33949144013919</v>
       </c>
       <c r="M31" t="n">
-        <v>64.25595535436817</v>
+        <v>64.25595535436818</v>
       </c>
       <c r="N31" t="n">
         <v>212.8404435700393</v>
       </c>
       <c r="O31" t="n">
-        <v>36.70659427566594</v>
+        <v>36.70659427566592</v>
       </c>
       <c r="P31" t="n">
         <v>57.81777162581081</v>
@@ -29776,7 +29776,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="L32" t="n">
-        <v>212.8404435700394</v>
+        <v>212.840443570039</v>
       </c>
       <c r="M32" t="n">
         <v>212.8404435700394</v>
@@ -29785,7 +29785,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="O32" t="n">
-        <v>212.84044357004</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="P32" t="n">
         <v>212.8404435700394</v>
@@ -29831,7 +29831,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.037534323605975</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>134.3151594521598</v>
@@ -29879,16 +29879,16 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>168.8420078259773</v>
+      </c>
+      <c r="W33" t="n">
         <v>212.8404435700394</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>3.632158425792881</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>212.8404435700394</v>
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>212.8404435700394</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
@@ -29919,7 +29919,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.6953110816783</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="H34" t="n">
         <v>165.7758191012691</v>
@@ -29934,22 +29934,22 @@
         <v>66.39518063773789</v>
       </c>
       <c r="L34" t="n">
-        <v>31.33949144013919</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="M34" t="n">
         <v>24.36038278515807</v>
       </c>
       <c r="N34" t="n">
-        <v>131.4315130763507</v>
+        <v>15.68403999776782</v>
       </c>
       <c r="O34" t="n">
-        <v>36.70659427566594</v>
+        <v>48.11248579888561</v>
       </c>
       <c r="P34" t="n">
         <v>57.81777162581081</v>
       </c>
       <c r="Q34" t="n">
-        <v>212.8404435700394</v>
+        <v>126.7594634122123</v>
       </c>
       <c r="R34" t="n">
         <v>203.184286794587</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="C35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="D35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="E35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="F35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="G35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="H35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="I35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="J35" t="n">
-        <v>236.2350917786667</v>
+        <v>196.5131524313283</v>
       </c>
       <c r="K35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="L35" t="n">
-        <v>169.3502494401263</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="N35" t="n">
-        <v>236.2350917786667</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="P35" t="n">
-        <v>13.34037157088122</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="Q35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="R35" t="n">
         <v>194.1163990953233</v>
       </c>
       <c r="S35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="T35" t="n">
-        <v>236.2350917786667</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="Y35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
     </row>
     <row r="36">
@@ -30107,28 +30107,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.037534323605975</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3151594521598</v>
+        <v>105.5738905595137</v>
       </c>
       <c r="S36" t="n">
-        <v>137.7687556598763</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>236.2350917786667</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>236.2350917786667</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30159,10 +30159,10 @@
         <v>168.6953110816783</v>
       </c>
       <c r="H37" t="n">
-        <v>236.2350917786667</v>
+        <v>165.7758191012691</v>
       </c>
       <c r="I37" t="n">
-        <v>211.0503138472044</v>
+        <v>164.6886553331604</v>
       </c>
       <c r="J37" t="n">
         <v>119.853313707886</v>
@@ -30174,13 +30174,13 @@
         <v>31.33949144013919</v>
       </c>
       <c r="M37" t="n">
-        <v>24.36038278515807</v>
+        <v>141.1813139765995</v>
       </c>
       <c r="N37" t="n">
-        <v>15.68403999776783</v>
+        <v>15.68403999776782</v>
       </c>
       <c r="O37" t="n">
-        <v>36.70659427566594</v>
+        <v>36.70659427566592</v>
       </c>
       <c r="P37" t="n">
         <v>57.81777162581081</v>
@@ -30192,19 +30192,19 @@
         <v>203.184286794587</v>
       </c>
       <c r="S37" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="T37" t="n">
         <v>223.7382129287516</v>
       </c>
       <c r="U37" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V37" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W37" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="C38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="D38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="E38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="F38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="G38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="H38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="I38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="J38" t="n">
-        <v>236.2350917786668</v>
+        <v>75.74779675011997</v>
       </c>
       <c r="K38" t="n">
-        <v>5.177760637567033</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="M38" t="n">
-        <v>135.3941676900963</v>
+        <v>226.4853969778414</v>
       </c>
       <c r="N38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="O38" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="Q38" t="n">
-        <v>236.2350917786668</v>
+        <v>88.39635779869047</v>
       </c>
       <c r="R38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="S38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="T38" t="n">
-        <v>236.2350917786668</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
     </row>
     <row r="39">
@@ -30308,10 +30308,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>118.1265912843514</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7380872222379</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.037534323605975</v>
+        <v>6.037534323605971</v>
       </c>
       <c r="R39" t="n">
         <v>134.3151594521598</v>
@@ -30353,19 +30353,19 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9446545048526</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>80.92755323862346</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30390,7 +30390,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="G40" t="n">
         <v>168.6953110816783</v>
@@ -30414,13 +30414,13 @@
         <v>24.36038278515807</v>
       </c>
       <c r="N40" t="n">
-        <v>133.3972385269132</v>
+        <v>15.68403999776782</v>
       </c>
       <c r="O40" t="n">
-        <v>36.70659427566594</v>
+        <v>36.70659427566592</v>
       </c>
       <c r="P40" t="n">
-        <v>57.81777162581081</v>
+        <v>78.22276059473637</v>
       </c>
       <c r="Q40" t="n">
         <v>126.7594634122123</v>
@@ -30435,13 +30435,13 @@
         <v>223.7382129287516</v>
       </c>
       <c r="U40" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V40" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W40" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="C41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="D41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="E41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="F41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="G41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="H41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="I41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="J41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="K41" t="n">
-        <v>236.2350917786667</v>
+        <v>140.5719283276621</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>140.5719283276638</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="P41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="R41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="S41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="T41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="U41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
     </row>
     <row r="42">
@@ -30542,19 +30542,19 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>49.350119136206</v>
       </c>
       <c r="G42" t="n">
         <v>148.7380872222379</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.6725816482287</v>
       </c>
       <c r="I42" t="n">
         <v>107.1390224876151</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.037534323605975</v>
+        <v>6.037534323605971</v>
       </c>
       <c r="R42" t="n">
         <v>134.3151594521598</v>
@@ -30593,16 +30593,16 @@
         <v>214.9446545048526</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W42" t="n">
-        <v>112.1842157057909</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30651,13 +30651,13 @@
         <v>24.36038278515807</v>
       </c>
       <c r="N43" t="n">
-        <v>15.68403999776783</v>
+        <v>15.68403999776782</v>
       </c>
       <c r="O43" t="n">
-        <v>154.4197928048116</v>
+        <v>36.70659427566592</v>
       </c>
       <c r="P43" t="n">
-        <v>57.81777162581081</v>
+        <v>175.5309701549562</v>
       </c>
       <c r="Q43" t="n">
         <v>126.7594634122123</v>
@@ -30672,13 +30672,13 @@
         <v>223.7382129287516</v>
       </c>
       <c r="U43" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V43" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W43" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="C44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="D44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="E44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="F44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="G44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="H44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="I44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="J44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="K44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="L44" t="n">
-        <v>163.3901248111753</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>236.2350917786667</v>
+        <v>140.5719283276626</v>
       </c>
       <c r="Q44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="R44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="S44" t="n">
-        <v>227.2394267154775</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4125603583446</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="U44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
     </row>
     <row r="45">
@@ -30776,7 +30776,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>89.05181540557545</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.037534323605975</v>
+        <v>6.037534323605971</v>
       </c>
       <c r="R45" t="n">
         <v>134.3151594521598</v>
@@ -30827,16 +30827,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9446545048526</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V45" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W45" t="n">
-        <v>159.0591929336906</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -30882,16 +30882,16 @@
         <v>66.39518063773789</v>
       </c>
       <c r="L46" t="n">
-        <v>31.33949144013919</v>
+        <v>149.0526899692848</v>
       </c>
       <c r="M46" t="n">
-        <v>142.0735813143037</v>
+        <v>24.36038278515807</v>
       </c>
       <c r="N46" t="n">
-        <v>15.68403999776783</v>
+        <v>15.68403999776782</v>
       </c>
       <c r="O46" t="n">
-        <v>36.70659427566594</v>
+        <v>36.70659427566592</v>
       </c>
       <c r="P46" t="n">
         <v>57.81777162581081</v>
@@ -30909,13 +30909,13 @@
         <v>223.7382129287516</v>
       </c>
       <c r="U46" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V46" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W46" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4188998381823999</v>
+        <v>0.4188998381824</v>
       </c>
       <c r="H11" t="n">
         <v>4.290057967785504</v>
@@ -31762,7 +31762,7 @@
         <v>35.5536001409335</v>
       </c>
       <c r="K11" t="n">
-        <v>53.28563029119449</v>
+        <v>53.2856302911945</v>
       </c>
       <c r="L11" t="n">
         <v>66.10553621396913</v>
@@ -31771,13 +31771,13 @@
         <v>73.55514621124539</v>
       </c>
       <c r="N11" t="n">
-        <v>74.74534537648113</v>
+        <v>74.74534537648114</v>
       </c>
       <c r="O11" t="n">
         <v>70.57991011055489</v>
       </c>
       <c r="P11" t="n">
-        <v>60.23832035542688</v>
+        <v>60.23832035542689</v>
       </c>
       <c r="Q11" t="n">
         <v>45.23646990051967</v>
@@ -31786,13 +31786,13 @@
         <v>26.3137169602252</v>
       </c>
       <c r="S11" t="n">
-        <v>9.545680062581447</v>
+        <v>9.545680062581448</v>
       </c>
       <c r="T11" t="n">
-        <v>1.833734041643456</v>
+        <v>1.833734041643457</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03351198705459198</v>
+        <v>0.03351198705459199</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>0.2241311728539135</v>
       </c>
       <c r="H12" t="n">
-        <v>2.164635274668059</v>
+        <v>2.16463527466806</v>
       </c>
       <c r="I12" t="n">
-        <v>7.716796960101846</v>
+        <v>7.716796960101847</v>
       </c>
       <c r="J12" t="n">
         <v>21.1754806773954</v>
@@ -31844,31 +31844,31 @@
         <v>36.1922692586076</v>
       </c>
       <c r="L12" t="n">
-        <v>48.66497242163591</v>
+        <v>48.66497242163592</v>
       </c>
       <c r="M12" t="n">
-        <v>56.78972743759026</v>
+        <v>56.78972743759027</v>
       </c>
       <c r="N12" t="n">
-        <v>58.29278253975533</v>
+        <v>58.29278253975534</v>
       </c>
       <c r="O12" t="n">
-        <v>53.32650760441335</v>
+        <v>53.32650760441336</v>
       </c>
       <c r="P12" t="n">
-        <v>42.79922370049862</v>
+        <v>42.79922370049863</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.61014760851008</v>
+        <v>28.61014760851009</v>
       </c>
       <c r="R12" t="n">
         <v>13.91579334614035</v>
       </c>
       <c r="S12" t="n">
-        <v>4.163138232615451</v>
+        <v>4.163138232615452</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9034059116348526</v>
+        <v>0.9034059116348528</v>
       </c>
       <c r="U12" t="n">
         <v>0.01474547189828379</v>
@@ -31914,10 +31914,10 @@
         <v>1.670637793170802</v>
       </c>
       <c r="I13" t="n">
-        <v>5.65078713681903</v>
+        <v>5.650787136819031</v>
       </c>
       <c r="J13" t="n">
-        <v>13.28481607105247</v>
+        <v>13.28481607105248</v>
       </c>
       <c r="K13" t="n">
         <v>21.8310337389804</v>
@@ -31926,13 +31926,13 @@
         <v>27.93620702404426</v>
       </c>
       <c r="M13" t="n">
-        <v>29.4548133615993</v>
+        <v>29.45481336159931</v>
       </c>
       <c r="N13" t="n">
         <v>28.75444373460543</v>
       </c>
       <c r="O13" t="n">
-        <v>26.55938283049041</v>
+        <v>26.55938283049042</v>
       </c>
       <c r="P13" t="n">
         <v>22.72614028665064</v>
@@ -31944,10 +31944,10 @@
         <v>8.448849207589754</v>
       </c>
       <c r="S13" t="n">
-        <v>3.274655060847059</v>
+        <v>3.27465506084706</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8028627431393418</v>
+        <v>0.8028627431393419</v>
       </c>
       <c r="U13" t="n">
         <v>0.0102493116145448</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4188998381823999</v>
+        <v>0.4188998381824</v>
       </c>
       <c r="H14" t="n">
         <v>4.290057967785504</v>
@@ -31999,7 +31999,7 @@
         <v>35.5536001409335</v>
       </c>
       <c r="K14" t="n">
-        <v>53.28563029119449</v>
+        <v>53.2856302911945</v>
       </c>
       <c r="L14" t="n">
         <v>66.10553621396913</v>
@@ -32008,13 +32008,13 @@
         <v>73.55514621124539</v>
       </c>
       <c r="N14" t="n">
-        <v>74.74534537648113</v>
+        <v>74.74534537648114</v>
       </c>
       <c r="O14" t="n">
         <v>70.57991011055489</v>
       </c>
       <c r="P14" t="n">
-        <v>60.23832035542688</v>
+        <v>60.23832035542689</v>
       </c>
       <c r="Q14" t="n">
         <v>45.23646990051967</v>
@@ -32023,13 +32023,13 @@
         <v>26.3137169602252</v>
       </c>
       <c r="S14" t="n">
-        <v>9.545680062581447</v>
+        <v>9.545680062581448</v>
       </c>
       <c r="T14" t="n">
-        <v>1.833734041643456</v>
+        <v>1.833734041643457</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03351198705459198</v>
+        <v>0.03351198705459199</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>0.2241311728539135</v>
       </c>
       <c r="H15" t="n">
-        <v>2.164635274668059</v>
+        <v>2.16463527466806</v>
       </c>
       <c r="I15" t="n">
-        <v>7.716796960101846</v>
+        <v>7.716796960101847</v>
       </c>
       <c r="J15" t="n">
         <v>21.1754806773954</v>
@@ -32081,31 +32081,31 @@
         <v>36.1922692586076</v>
       </c>
       <c r="L15" t="n">
-        <v>48.66497242163591</v>
+        <v>48.66497242163592</v>
       </c>
       <c r="M15" t="n">
-        <v>56.78972743759026</v>
+        <v>56.78972743759027</v>
       </c>
       <c r="N15" t="n">
-        <v>58.29278253975533</v>
+        <v>58.29278253975534</v>
       </c>
       <c r="O15" t="n">
-        <v>53.32650760441335</v>
+        <v>53.32650760441336</v>
       </c>
       <c r="P15" t="n">
-        <v>42.79922370049862</v>
+        <v>42.79922370049863</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.61014760851008</v>
+        <v>28.61014760851009</v>
       </c>
       <c r="R15" t="n">
         <v>13.91579334614035</v>
       </c>
       <c r="S15" t="n">
-        <v>4.163138232615451</v>
+        <v>4.163138232615452</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9034059116348526</v>
+        <v>0.9034059116348528</v>
       </c>
       <c r="U15" t="n">
         <v>0.01474547189828379</v>
@@ -32151,10 +32151,10 @@
         <v>1.670637793170802</v>
       </c>
       <c r="I16" t="n">
-        <v>5.65078713681903</v>
+        <v>5.650787136819031</v>
       </c>
       <c r="J16" t="n">
-        <v>13.28481607105247</v>
+        <v>13.28481607105248</v>
       </c>
       <c r="K16" t="n">
         <v>21.8310337389804</v>
@@ -32163,13 +32163,13 @@
         <v>27.93620702404426</v>
       </c>
       <c r="M16" t="n">
-        <v>29.4548133615993</v>
+        <v>29.45481336159931</v>
       </c>
       <c r="N16" t="n">
         <v>28.75444373460543</v>
       </c>
       <c r="O16" t="n">
-        <v>26.55938283049041</v>
+        <v>26.55938283049042</v>
       </c>
       <c r="P16" t="n">
         <v>22.72614028665064</v>
@@ -32181,10 +32181,10 @@
         <v>8.448849207589754</v>
       </c>
       <c r="S16" t="n">
-        <v>3.274655060847059</v>
+        <v>3.27465506084706</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8028627431393418</v>
+        <v>0.8028627431393419</v>
       </c>
       <c r="U16" t="n">
         <v>0.0102493116145448</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4188998381823999</v>
+        <v>0.4188998381824</v>
       </c>
       <c r="H17" t="n">
         <v>4.290057967785504</v>
@@ -32236,7 +32236,7 @@
         <v>35.5536001409335</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28563029119449</v>
+        <v>53.2856302911945</v>
       </c>
       <c r="L17" t="n">
         <v>66.10553621396913</v>
@@ -32245,13 +32245,13 @@
         <v>73.55514621124539</v>
       </c>
       <c r="N17" t="n">
-        <v>74.74534537648113</v>
+        <v>74.74534537648114</v>
       </c>
       <c r="O17" t="n">
         <v>70.57991011055489</v>
       </c>
       <c r="P17" t="n">
-        <v>60.23832035542688</v>
+        <v>60.23832035542689</v>
       </c>
       <c r="Q17" t="n">
         <v>45.23646990051967</v>
@@ -32260,13 +32260,13 @@
         <v>26.3137169602252</v>
       </c>
       <c r="S17" t="n">
-        <v>9.545680062581447</v>
+        <v>9.545680062581448</v>
       </c>
       <c r="T17" t="n">
-        <v>1.833734041643456</v>
+        <v>1.833734041643457</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03351198705459198</v>
+        <v>0.03351198705459199</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>0.2241311728539135</v>
       </c>
       <c r="H18" t="n">
-        <v>2.164635274668059</v>
+        <v>2.16463527466806</v>
       </c>
       <c r="I18" t="n">
-        <v>7.716796960101846</v>
+        <v>7.716796960101847</v>
       </c>
       <c r="J18" t="n">
         <v>21.1754806773954</v>
@@ -32318,31 +32318,31 @@
         <v>36.1922692586076</v>
       </c>
       <c r="L18" t="n">
-        <v>48.66497242163591</v>
+        <v>48.66497242163592</v>
       </c>
       <c r="M18" t="n">
-        <v>56.78972743759026</v>
+        <v>56.78972743759027</v>
       </c>
       <c r="N18" t="n">
-        <v>58.29278253975533</v>
+        <v>58.29278253975534</v>
       </c>
       <c r="O18" t="n">
-        <v>53.32650760441335</v>
+        <v>53.32650760441336</v>
       </c>
       <c r="P18" t="n">
-        <v>42.79922370049862</v>
+        <v>42.79922370049863</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.61014760851008</v>
+        <v>28.61014760851009</v>
       </c>
       <c r="R18" t="n">
         <v>13.91579334614035</v>
       </c>
       <c r="S18" t="n">
-        <v>4.163138232615451</v>
+        <v>4.163138232615452</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9034059116348526</v>
+        <v>0.9034059116348528</v>
       </c>
       <c r="U18" t="n">
         <v>0.01474547189828379</v>
@@ -32388,10 +32388,10 @@
         <v>1.670637793170802</v>
       </c>
       <c r="I19" t="n">
-        <v>5.65078713681903</v>
+        <v>5.650787136819031</v>
       </c>
       <c r="J19" t="n">
-        <v>13.28481607105247</v>
+        <v>13.28481607105248</v>
       </c>
       <c r="K19" t="n">
         <v>21.8310337389804</v>
@@ -32400,13 +32400,13 @@
         <v>27.93620702404426</v>
       </c>
       <c r="M19" t="n">
-        <v>29.4548133615993</v>
+        <v>29.45481336159931</v>
       </c>
       <c r="N19" t="n">
         <v>28.75444373460543</v>
       </c>
       <c r="O19" t="n">
-        <v>26.55938283049041</v>
+        <v>26.55938283049042</v>
       </c>
       <c r="P19" t="n">
         <v>22.72614028665064</v>
@@ -32418,10 +32418,10 @@
         <v>8.448849207589754</v>
       </c>
       <c r="S19" t="n">
-        <v>3.274655060847059</v>
+        <v>3.27465506084706</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8028627431393418</v>
+        <v>0.8028627431393419</v>
       </c>
       <c r="U19" t="n">
         <v>0.0102493116145448</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4188998381823999</v>
+        <v>0.4188998381824</v>
       </c>
       <c r="H20" t="n">
         <v>4.290057967785504</v>
@@ -32473,7 +32473,7 @@
         <v>35.5536001409335</v>
       </c>
       <c r="K20" t="n">
-        <v>53.28563029119449</v>
+        <v>53.2856302911945</v>
       </c>
       <c r="L20" t="n">
         <v>66.10553621396913</v>
@@ -32482,13 +32482,13 @@
         <v>73.55514621124539</v>
       </c>
       <c r="N20" t="n">
-        <v>74.74534537648113</v>
+        <v>74.74534537648114</v>
       </c>
       <c r="O20" t="n">
         <v>70.57991011055489</v>
       </c>
       <c r="P20" t="n">
-        <v>60.23832035542688</v>
+        <v>60.23832035542689</v>
       </c>
       <c r="Q20" t="n">
         <v>45.23646990051967</v>
@@ -32497,13 +32497,13 @@
         <v>26.3137169602252</v>
       </c>
       <c r="S20" t="n">
-        <v>9.545680062581447</v>
+        <v>9.545680062581448</v>
       </c>
       <c r="T20" t="n">
-        <v>1.833734041643456</v>
+        <v>1.833734041643457</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03351198705459198</v>
+        <v>0.03351198705459199</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32543,10 @@
         <v>0.2241311728539135</v>
       </c>
       <c r="H21" t="n">
-        <v>2.164635274668059</v>
+        <v>2.16463527466806</v>
       </c>
       <c r="I21" t="n">
-        <v>7.716796960101846</v>
+        <v>7.716796960101847</v>
       </c>
       <c r="J21" t="n">
         <v>21.1754806773954</v>
@@ -32555,31 +32555,31 @@
         <v>36.1922692586076</v>
       </c>
       <c r="L21" t="n">
-        <v>48.66497242163591</v>
+        <v>48.66497242163592</v>
       </c>
       <c r="M21" t="n">
-        <v>56.78972743759026</v>
+        <v>56.78972743759027</v>
       </c>
       <c r="N21" t="n">
-        <v>58.29278253975533</v>
+        <v>58.29278253975534</v>
       </c>
       <c r="O21" t="n">
-        <v>53.32650760441335</v>
+        <v>53.32650760441336</v>
       </c>
       <c r="P21" t="n">
-        <v>42.79922370049862</v>
+        <v>42.79922370049863</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.61014760851008</v>
+        <v>28.61014760851009</v>
       </c>
       <c r="R21" t="n">
         <v>13.91579334614035</v>
       </c>
       <c r="S21" t="n">
-        <v>4.163138232615451</v>
+        <v>4.163138232615452</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9034059116348526</v>
+        <v>0.9034059116348528</v>
       </c>
       <c r="U21" t="n">
         <v>0.01474547189828379</v>
@@ -32625,10 +32625,10 @@
         <v>1.670637793170802</v>
       </c>
       <c r="I22" t="n">
-        <v>5.65078713681903</v>
+        <v>5.650787136819031</v>
       </c>
       <c r="J22" t="n">
-        <v>13.28481607105247</v>
+        <v>13.28481607105248</v>
       </c>
       <c r="K22" t="n">
         <v>21.8310337389804</v>
@@ -32637,13 +32637,13 @@
         <v>27.93620702404426</v>
       </c>
       <c r="M22" t="n">
-        <v>29.4548133615993</v>
+        <v>29.45481336159931</v>
       </c>
       <c r="N22" t="n">
         <v>28.75444373460543</v>
       </c>
       <c r="O22" t="n">
-        <v>26.55938283049041</v>
+        <v>26.55938283049042</v>
       </c>
       <c r="P22" t="n">
         <v>22.72614028665064</v>
@@ -32655,10 +32655,10 @@
         <v>8.448849207589754</v>
       </c>
       <c r="S22" t="n">
-        <v>3.274655060847059</v>
+        <v>3.27465506084706</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8028627431393418</v>
+        <v>0.8028627431393419</v>
       </c>
       <c r="U22" t="n">
         <v>0.0102493116145448</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4188998381823999</v>
+        <v>0.4188998381824</v>
       </c>
       <c r="H23" t="n">
         <v>4.290057967785504</v>
@@ -32710,7 +32710,7 @@
         <v>35.5536001409335</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28563029119449</v>
+        <v>53.2856302911945</v>
       </c>
       <c r="L23" t="n">
         <v>66.10553621396913</v>
@@ -32719,13 +32719,13 @@
         <v>73.55514621124539</v>
       </c>
       <c r="N23" t="n">
-        <v>74.74534537648113</v>
+        <v>74.74534537648114</v>
       </c>
       <c r="O23" t="n">
         <v>70.57991011055489</v>
       </c>
       <c r="P23" t="n">
-        <v>60.23832035542688</v>
+        <v>60.23832035542689</v>
       </c>
       <c r="Q23" t="n">
         <v>45.23646990051967</v>
@@ -32734,13 +32734,13 @@
         <v>26.3137169602252</v>
       </c>
       <c r="S23" t="n">
-        <v>9.545680062581447</v>
+        <v>9.545680062581448</v>
       </c>
       <c r="T23" t="n">
-        <v>1.833734041643456</v>
+        <v>1.833734041643457</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03351198705459198</v>
+        <v>0.03351198705459199</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,10 +32780,10 @@
         <v>0.2241311728539135</v>
       </c>
       <c r="H24" t="n">
-        <v>2.164635274668059</v>
+        <v>2.16463527466806</v>
       </c>
       <c r="I24" t="n">
-        <v>7.716796960101846</v>
+        <v>7.716796960101847</v>
       </c>
       <c r="J24" t="n">
         <v>21.1754806773954</v>
@@ -32792,31 +32792,31 @@
         <v>36.1922692586076</v>
       </c>
       <c r="L24" t="n">
-        <v>48.66497242163591</v>
+        <v>48.66497242163592</v>
       </c>
       <c r="M24" t="n">
-        <v>56.78972743759026</v>
+        <v>56.78972743759027</v>
       </c>
       <c r="N24" t="n">
-        <v>58.29278253975533</v>
+        <v>58.29278253975534</v>
       </c>
       <c r="O24" t="n">
-        <v>53.32650760441335</v>
+        <v>53.32650760441336</v>
       </c>
       <c r="P24" t="n">
-        <v>42.79922370049862</v>
+        <v>42.79922370049863</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.61014760851008</v>
+        <v>28.61014760851009</v>
       </c>
       <c r="R24" t="n">
         <v>13.91579334614035</v>
       </c>
       <c r="S24" t="n">
-        <v>4.163138232615451</v>
+        <v>4.163138232615452</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9034059116348526</v>
+        <v>0.9034059116348528</v>
       </c>
       <c r="U24" t="n">
         <v>0.01474547189828379</v>
@@ -32862,10 +32862,10 @@
         <v>1.670637793170802</v>
       </c>
       <c r="I25" t="n">
-        <v>5.65078713681903</v>
+        <v>5.650787136819031</v>
       </c>
       <c r="J25" t="n">
-        <v>13.28481607105247</v>
+        <v>13.28481607105248</v>
       </c>
       <c r="K25" t="n">
         <v>21.8310337389804</v>
@@ -32874,13 +32874,13 @@
         <v>27.93620702404426</v>
       </c>
       <c r="M25" t="n">
-        <v>29.4548133615993</v>
+        <v>29.45481336159931</v>
       </c>
       <c r="N25" t="n">
         <v>28.75444373460543</v>
       </c>
       <c r="O25" t="n">
-        <v>26.55938283049041</v>
+        <v>26.55938283049042</v>
       </c>
       <c r="P25" t="n">
         <v>22.72614028665064</v>
@@ -32892,10 +32892,10 @@
         <v>8.448849207589754</v>
       </c>
       <c r="S25" t="n">
-        <v>3.274655060847059</v>
+        <v>3.27465506084706</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8028627431393418</v>
+        <v>0.8028627431393419</v>
       </c>
       <c r="U25" t="n">
         <v>0.0102493116145448</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4188998381823999</v>
+        <v>0.4188998381824</v>
       </c>
       <c r="H26" t="n">
         <v>4.290057967785504</v>
@@ -32947,7 +32947,7 @@
         <v>35.5536001409335</v>
       </c>
       <c r="K26" t="n">
-        <v>53.28563029119449</v>
+        <v>53.2856302911945</v>
       </c>
       <c r="L26" t="n">
         <v>66.10553621396913</v>
@@ -32956,13 +32956,13 @@
         <v>73.55514621124539</v>
       </c>
       <c r="N26" t="n">
-        <v>74.74534537648113</v>
+        <v>74.74534537648114</v>
       </c>
       <c r="O26" t="n">
         <v>70.57991011055489</v>
       </c>
       <c r="P26" t="n">
-        <v>60.23832035542688</v>
+        <v>60.23832035542689</v>
       </c>
       <c r="Q26" t="n">
         <v>45.23646990051967</v>
@@ -32971,13 +32971,13 @@
         <v>26.3137169602252</v>
       </c>
       <c r="S26" t="n">
-        <v>9.545680062581447</v>
+        <v>9.545680062581448</v>
       </c>
       <c r="T26" t="n">
-        <v>1.833734041643456</v>
+        <v>1.833734041643457</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03351198705459198</v>
+        <v>0.03351198705459199</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,10 +33017,10 @@
         <v>0.2241311728539135</v>
       </c>
       <c r="H27" t="n">
-        <v>2.164635274668059</v>
+        <v>2.16463527466806</v>
       </c>
       <c r="I27" t="n">
-        <v>7.716796960101846</v>
+        <v>7.716796960101847</v>
       </c>
       <c r="J27" t="n">
         <v>21.1754806773954</v>
@@ -33029,31 +33029,31 @@
         <v>36.1922692586076</v>
       </c>
       <c r="L27" t="n">
-        <v>48.66497242163591</v>
+        <v>48.66497242163592</v>
       </c>
       <c r="M27" t="n">
-        <v>56.78972743759026</v>
+        <v>56.78972743759027</v>
       </c>
       <c r="N27" t="n">
-        <v>58.29278253975533</v>
+        <v>58.29278253975534</v>
       </c>
       <c r="O27" t="n">
-        <v>53.32650760441335</v>
+        <v>53.32650760441336</v>
       </c>
       <c r="P27" t="n">
-        <v>42.79922370049862</v>
+        <v>42.79922370049863</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.61014760851008</v>
+        <v>28.61014760851009</v>
       </c>
       <c r="R27" t="n">
         <v>13.91579334614035</v>
       </c>
       <c r="S27" t="n">
-        <v>4.163138232615451</v>
+        <v>4.163138232615452</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9034059116348526</v>
+        <v>0.9034059116348528</v>
       </c>
       <c r="U27" t="n">
         <v>0.01474547189828379</v>
@@ -33099,10 +33099,10 @@
         <v>1.670637793170802</v>
       </c>
       <c r="I28" t="n">
-        <v>5.65078713681903</v>
+        <v>5.650787136819031</v>
       </c>
       <c r="J28" t="n">
-        <v>13.28481607105247</v>
+        <v>13.28481607105248</v>
       </c>
       <c r="K28" t="n">
         <v>21.8310337389804</v>
@@ -33111,13 +33111,13 @@
         <v>27.93620702404426</v>
       </c>
       <c r="M28" t="n">
-        <v>29.4548133615993</v>
+        <v>29.45481336159931</v>
       </c>
       <c r="N28" t="n">
         <v>28.75444373460543</v>
       </c>
       <c r="O28" t="n">
-        <v>26.55938283049041</v>
+        <v>26.55938283049042</v>
       </c>
       <c r="P28" t="n">
         <v>22.72614028665064</v>
@@ -33129,10 +33129,10 @@
         <v>8.448849207589754</v>
       </c>
       <c r="S28" t="n">
-        <v>3.274655060847059</v>
+        <v>3.27465506084706</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8028627431393418</v>
+        <v>0.8028627431393419</v>
       </c>
       <c r="U28" t="n">
         <v>0.0102493116145448</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4188998381823999</v>
+        <v>0.4188998381824</v>
       </c>
       <c r="H29" t="n">
         <v>4.290057967785504</v>
@@ -33184,7 +33184,7 @@
         <v>35.5536001409335</v>
       </c>
       <c r="K29" t="n">
-        <v>53.28563029119449</v>
+        <v>53.2856302911945</v>
       </c>
       <c r="L29" t="n">
         <v>66.10553621396913</v>
@@ -33193,13 +33193,13 @@
         <v>73.55514621124539</v>
       </c>
       <c r="N29" t="n">
-        <v>74.74534537648113</v>
+        <v>74.74534537648114</v>
       </c>
       <c r="O29" t="n">
         <v>70.57991011055489</v>
       </c>
       <c r="P29" t="n">
-        <v>60.23832035542688</v>
+        <v>60.23832035542689</v>
       </c>
       <c r="Q29" t="n">
         <v>45.23646990051967</v>
@@ -33208,13 +33208,13 @@
         <v>26.3137169602252</v>
       </c>
       <c r="S29" t="n">
-        <v>9.545680062581447</v>
+        <v>9.545680062581448</v>
       </c>
       <c r="T29" t="n">
-        <v>1.833734041643456</v>
+        <v>1.833734041643457</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03351198705459198</v>
+        <v>0.03351198705459199</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,10 +33254,10 @@
         <v>0.2241311728539135</v>
       </c>
       <c r="H30" t="n">
-        <v>2.164635274668059</v>
+        <v>2.16463527466806</v>
       </c>
       <c r="I30" t="n">
-        <v>7.716796960101846</v>
+        <v>7.716796960101847</v>
       </c>
       <c r="J30" t="n">
         <v>21.1754806773954</v>
@@ -33266,31 +33266,31 @@
         <v>36.1922692586076</v>
       </c>
       <c r="L30" t="n">
-        <v>48.66497242163591</v>
+        <v>48.66497242163592</v>
       </c>
       <c r="M30" t="n">
-        <v>56.78972743759026</v>
+        <v>56.78972743759027</v>
       </c>
       <c r="N30" t="n">
-        <v>58.29278253975533</v>
+        <v>58.29278253975534</v>
       </c>
       <c r="O30" t="n">
-        <v>53.32650760441335</v>
+        <v>53.32650760441336</v>
       </c>
       <c r="P30" t="n">
-        <v>42.79922370049862</v>
+        <v>42.79922370049863</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.61014760851008</v>
+        <v>28.61014760851009</v>
       </c>
       <c r="R30" t="n">
         <v>13.91579334614035</v>
       </c>
       <c r="S30" t="n">
-        <v>4.163138232615451</v>
+        <v>4.163138232615452</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9034059116348526</v>
+        <v>0.9034059116348528</v>
       </c>
       <c r="U30" t="n">
         <v>0.01474547189828379</v>
@@ -33336,10 +33336,10 @@
         <v>1.670637793170802</v>
       </c>
       <c r="I31" t="n">
-        <v>5.65078713681903</v>
+        <v>5.650787136819031</v>
       </c>
       <c r="J31" t="n">
-        <v>13.28481607105247</v>
+        <v>13.28481607105248</v>
       </c>
       <c r="K31" t="n">
         <v>21.8310337389804</v>
@@ -33348,13 +33348,13 @@
         <v>27.93620702404426</v>
       </c>
       <c r="M31" t="n">
-        <v>29.4548133615993</v>
+        <v>29.45481336159931</v>
       </c>
       <c r="N31" t="n">
         <v>28.75444373460543</v>
       </c>
       <c r="O31" t="n">
-        <v>26.55938283049041</v>
+        <v>26.55938283049042</v>
       </c>
       <c r="P31" t="n">
         <v>22.72614028665064</v>
@@ -33366,10 +33366,10 @@
         <v>8.448849207589754</v>
       </c>
       <c r="S31" t="n">
-        <v>3.274655060847059</v>
+        <v>3.27465506084706</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8028627431393418</v>
+        <v>0.8028627431393419</v>
       </c>
       <c r="U31" t="n">
         <v>0.0102493116145448</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4188998381823999</v>
+        <v>0.4188998381824</v>
       </c>
       <c r="H32" t="n">
         <v>4.290057967785504</v>
@@ -33421,7 +33421,7 @@
         <v>35.5536001409335</v>
       </c>
       <c r="K32" t="n">
-        <v>53.28563029119449</v>
+        <v>53.2856302911945</v>
       </c>
       <c r="L32" t="n">
         <v>66.10553621396913</v>
@@ -33430,13 +33430,13 @@
         <v>73.55514621124539</v>
       </c>
       <c r="N32" t="n">
-        <v>74.74534537648113</v>
+        <v>74.74534537648114</v>
       </c>
       <c r="O32" t="n">
         <v>70.57991011055489</v>
       </c>
       <c r="P32" t="n">
-        <v>60.23832035542688</v>
+        <v>60.23832035542689</v>
       </c>
       <c r="Q32" t="n">
         <v>45.23646990051967</v>
@@ -33445,13 +33445,13 @@
         <v>26.3137169602252</v>
       </c>
       <c r="S32" t="n">
-        <v>9.545680062581447</v>
+        <v>9.545680062581448</v>
       </c>
       <c r="T32" t="n">
-        <v>1.833734041643456</v>
+        <v>1.833734041643457</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03351198705459198</v>
+        <v>0.03351198705459199</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,10 +33491,10 @@
         <v>0.2241311728539135</v>
       </c>
       <c r="H33" t="n">
-        <v>2.164635274668059</v>
+        <v>2.16463527466806</v>
       </c>
       <c r="I33" t="n">
-        <v>7.716796960101846</v>
+        <v>7.716796960101847</v>
       </c>
       <c r="J33" t="n">
         <v>21.1754806773954</v>
@@ -33503,31 +33503,31 @@
         <v>36.1922692586076</v>
       </c>
       <c r="L33" t="n">
-        <v>48.66497242163591</v>
+        <v>48.66497242163592</v>
       </c>
       <c r="M33" t="n">
-        <v>56.78972743759026</v>
+        <v>56.78972743759027</v>
       </c>
       <c r="N33" t="n">
-        <v>58.29278253975533</v>
+        <v>58.29278253975534</v>
       </c>
       <c r="O33" t="n">
-        <v>53.32650760441335</v>
+        <v>53.32650760441336</v>
       </c>
       <c r="P33" t="n">
-        <v>42.79922370049862</v>
+        <v>42.79922370049863</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.61014760851008</v>
+        <v>28.61014760851009</v>
       </c>
       <c r="R33" t="n">
         <v>13.91579334614035</v>
       </c>
       <c r="S33" t="n">
-        <v>4.163138232615451</v>
+        <v>4.163138232615452</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9034059116348526</v>
+        <v>0.9034059116348528</v>
       </c>
       <c r="U33" t="n">
         <v>0.01474547189828379</v>
@@ -33573,10 +33573,10 @@
         <v>1.670637793170802</v>
       </c>
       <c r="I34" t="n">
-        <v>5.65078713681903</v>
+        <v>5.650787136819031</v>
       </c>
       <c r="J34" t="n">
-        <v>13.28481607105247</v>
+        <v>13.28481607105248</v>
       </c>
       <c r="K34" t="n">
         <v>21.8310337389804</v>
@@ -33585,13 +33585,13 @@
         <v>27.93620702404426</v>
       </c>
       <c r="M34" t="n">
-        <v>29.4548133615993</v>
+        <v>29.45481336159931</v>
       </c>
       <c r="N34" t="n">
         <v>28.75444373460543</v>
       </c>
       <c r="O34" t="n">
-        <v>26.55938283049041</v>
+        <v>26.55938283049042</v>
       </c>
       <c r="P34" t="n">
         <v>22.72614028665064</v>
@@ -33603,10 +33603,10 @@
         <v>8.448849207589754</v>
       </c>
       <c r="S34" t="n">
-        <v>3.274655060847059</v>
+        <v>3.27465506084706</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8028627431393418</v>
+        <v>0.8028627431393419</v>
       </c>
       <c r="U34" t="n">
         <v>0.0102493116145448</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4188998381823999</v>
+        <v>0.4188998381824</v>
       </c>
       <c r="H35" t="n">
         <v>4.290057967785504</v>
@@ -33658,7 +33658,7 @@
         <v>35.5536001409335</v>
       </c>
       <c r="K35" t="n">
-        <v>53.28563029119449</v>
+        <v>53.2856302911945</v>
       </c>
       <c r="L35" t="n">
         <v>66.10553621396913</v>
@@ -33667,13 +33667,13 @@
         <v>73.55514621124539</v>
       </c>
       <c r="N35" t="n">
-        <v>74.74534537648113</v>
+        <v>74.74534537648114</v>
       </c>
       <c r="O35" t="n">
         <v>70.57991011055489</v>
       </c>
       <c r="P35" t="n">
-        <v>60.23832035542688</v>
+        <v>60.23832035542689</v>
       </c>
       <c r="Q35" t="n">
         <v>45.23646990051967</v>
@@ -33682,13 +33682,13 @@
         <v>26.3137169602252</v>
       </c>
       <c r="S35" t="n">
-        <v>9.545680062581447</v>
+        <v>9.545680062581448</v>
       </c>
       <c r="T35" t="n">
-        <v>1.833734041643456</v>
+        <v>1.833734041643457</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03351198705459198</v>
+        <v>0.03351198705459199</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,10 +33728,10 @@
         <v>0.2241311728539135</v>
       </c>
       <c r="H36" t="n">
-        <v>2.164635274668059</v>
+        <v>2.16463527466806</v>
       </c>
       <c r="I36" t="n">
-        <v>7.716796960101846</v>
+        <v>7.716796960101847</v>
       </c>
       <c r="J36" t="n">
         <v>21.1754806773954</v>
@@ -33740,31 +33740,31 @@
         <v>36.1922692586076</v>
       </c>
       <c r="L36" t="n">
-        <v>48.66497242163591</v>
+        <v>48.66497242163592</v>
       </c>
       <c r="M36" t="n">
-        <v>56.78972743759026</v>
+        <v>56.78972743759027</v>
       </c>
       <c r="N36" t="n">
-        <v>58.29278253975533</v>
+        <v>58.29278253975534</v>
       </c>
       <c r="O36" t="n">
-        <v>53.32650760441335</v>
+        <v>53.32650760441336</v>
       </c>
       <c r="P36" t="n">
-        <v>42.79922370049862</v>
+        <v>42.79922370049863</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.61014760851008</v>
+        <v>28.61014760851009</v>
       </c>
       <c r="R36" t="n">
         <v>13.91579334614035</v>
       </c>
       <c r="S36" t="n">
-        <v>4.163138232615451</v>
+        <v>4.163138232615452</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9034059116348526</v>
+        <v>0.9034059116348528</v>
       </c>
       <c r="U36" t="n">
         <v>0.01474547189828379</v>
@@ -33810,10 +33810,10 @@
         <v>1.670637793170802</v>
       </c>
       <c r="I37" t="n">
-        <v>5.65078713681903</v>
+        <v>5.650787136819031</v>
       </c>
       <c r="J37" t="n">
-        <v>13.28481607105247</v>
+        <v>13.28481607105248</v>
       </c>
       <c r="K37" t="n">
         <v>21.8310337389804</v>
@@ -33822,13 +33822,13 @@
         <v>27.93620702404426</v>
       </c>
       <c r="M37" t="n">
-        <v>29.4548133615993</v>
+        <v>29.45481336159931</v>
       </c>
       <c r="N37" t="n">
         <v>28.75444373460543</v>
       </c>
       <c r="O37" t="n">
-        <v>26.55938283049041</v>
+        <v>26.55938283049042</v>
       </c>
       <c r="P37" t="n">
         <v>22.72614028665064</v>
@@ -33840,10 +33840,10 @@
         <v>8.448849207589754</v>
       </c>
       <c r="S37" t="n">
-        <v>3.274655060847059</v>
+        <v>3.27465506084706</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8028627431393418</v>
+        <v>0.8028627431393419</v>
       </c>
       <c r="U37" t="n">
         <v>0.0102493116145448</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4188998381823999</v>
+        <v>0.4188998381824</v>
       </c>
       <c r="H38" t="n">
         <v>4.290057967785504</v>
@@ -33895,7 +33895,7 @@
         <v>35.5536001409335</v>
       </c>
       <c r="K38" t="n">
-        <v>53.28563029119449</v>
+        <v>53.2856302911945</v>
       </c>
       <c r="L38" t="n">
         <v>66.10553621396913</v>
@@ -33904,13 +33904,13 @@
         <v>73.55514621124539</v>
       </c>
       <c r="N38" t="n">
-        <v>74.74534537648113</v>
+        <v>74.74534537648114</v>
       </c>
       <c r="O38" t="n">
         <v>70.57991011055489</v>
       </c>
       <c r="P38" t="n">
-        <v>60.23832035542688</v>
+        <v>60.23832035542689</v>
       </c>
       <c r="Q38" t="n">
         <v>45.23646990051967</v>
@@ -33919,13 +33919,13 @@
         <v>26.3137169602252</v>
       </c>
       <c r="S38" t="n">
-        <v>9.545680062581447</v>
+        <v>9.545680062581448</v>
       </c>
       <c r="T38" t="n">
-        <v>1.833734041643456</v>
+        <v>1.833734041643457</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03351198705459198</v>
+        <v>0.03351198705459199</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,10 +33965,10 @@
         <v>0.2241311728539135</v>
       </c>
       <c r="H39" t="n">
-        <v>2.164635274668059</v>
+        <v>2.16463527466806</v>
       </c>
       <c r="I39" t="n">
-        <v>7.716796960101846</v>
+        <v>7.716796960101847</v>
       </c>
       <c r="J39" t="n">
         <v>21.1754806773954</v>
@@ -33977,31 +33977,31 @@
         <v>36.1922692586076</v>
       </c>
       <c r="L39" t="n">
-        <v>48.66497242163591</v>
+        <v>48.66497242163592</v>
       </c>
       <c r="M39" t="n">
-        <v>56.78972743759026</v>
+        <v>56.78972743759027</v>
       </c>
       <c r="N39" t="n">
-        <v>58.29278253975533</v>
+        <v>58.29278253975534</v>
       </c>
       <c r="O39" t="n">
-        <v>53.32650760441335</v>
+        <v>53.32650760441336</v>
       </c>
       <c r="P39" t="n">
-        <v>42.79922370049862</v>
+        <v>42.79922370049863</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.61014760851008</v>
+        <v>28.61014760851009</v>
       </c>
       <c r="R39" t="n">
         <v>13.91579334614035</v>
       </c>
       <c r="S39" t="n">
-        <v>4.163138232615451</v>
+        <v>4.163138232615452</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9034059116348526</v>
+        <v>0.9034059116348528</v>
       </c>
       <c r="U39" t="n">
         <v>0.01474547189828379</v>
@@ -34047,10 +34047,10 @@
         <v>1.670637793170802</v>
       </c>
       <c r="I40" t="n">
-        <v>5.65078713681903</v>
+        <v>5.650787136819031</v>
       </c>
       <c r="J40" t="n">
-        <v>13.28481607105247</v>
+        <v>13.28481607105248</v>
       </c>
       <c r="K40" t="n">
         <v>21.8310337389804</v>
@@ -34059,13 +34059,13 @@
         <v>27.93620702404426</v>
       </c>
       <c r="M40" t="n">
-        <v>29.4548133615993</v>
+        <v>29.45481336159931</v>
       </c>
       <c r="N40" t="n">
         <v>28.75444373460543</v>
       </c>
       <c r="O40" t="n">
-        <v>26.55938283049041</v>
+        <v>26.55938283049042</v>
       </c>
       <c r="P40" t="n">
         <v>22.72614028665064</v>
@@ -34077,10 +34077,10 @@
         <v>8.448849207589754</v>
       </c>
       <c r="S40" t="n">
-        <v>3.274655060847059</v>
+        <v>3.27465506084706</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8028627431393418</v>
+        <v>0.8028627431393419</v>
       </c>
       <c r="U40" t="n">
         <v>0.0102493116145448</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4188998381823999</v>
+        <v>0.4188998381824</v>
       </c>
       <c r="H41" t="n">
         <v>4.290057967785504</v>
@@ -34132,7 +34132,7 @@
         <v>35.5536001409335</v>
       </c>
       <c r="K41" t="n">
-        <v>53.28563029119449</v>
+        <v>53.2856302911945</v>
       </c>
       <c r="L41" t="n">
         <v>66.10553621396913</v>
@@ -34141,13 +34141,13 @@
         <v>73.55514621124539</v>
       </c>
       <c r="N41" t="n">
-        <v>74.74534537648113</v>
+        <v>74.74534537648114</v>
       </c>
       <c r="O41" t="n">
         <v>70.57991011055489</v>
       </c>
       <c r="P41" t="n">
-        <v>60.23832035542688</v>
+        <v>60.23832035542689</v>
       </c>
       <c r="Q41" t="n">
         <v>45.23646990051967</v>
@@ -34156,13 +34156,13 @@
         <v>26.3137169602252</v>
       </c>
       <c r="S41" t="n">
-        <v>9.545680062581447</v>
+        <v>9.545680062581448</v>
       </c>
       <c r="T41" t="n">
-        <v>1.833734041643456</v>
+        <v>1.833734041643457</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03351198705459198</v>
+        <v>0.03351198705459199</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,10 +34202,10 @@
         <v>0.2241311728539135</v>
       </c>
       <c r="H42" t="n">
-        <v>2.164635274668059</v>
+        <v>2.16463527466806</v>
       </c>
       <c r="I42" t="n">
-        <v>7.716796960101846</v>
+        <v>7.716796960101847</v>
       </c>
       <c r="J42" t="n">
         <v>21.1754806773954</v>
@@ -34214,31 +34214,31 @@
         <v>36.1922692586076</v>
       </c>
       <c r="L42" t="n">
-        <v>48.66497242163591</v>
+        <v>48.66497242163592</v>
       </c>
       <c r="M42" t="n">
-        <v>56.78972743759026</v>
+        <v>56.78972743759027</v>
       </c>
       <c r="N42" t="n">
-        <v>58.29278253975533</v>
+        <v>58.29278253975534</v>
       </c>
       <c r="O42" t="n">
-        <v>53.32650760441335</v>
+        <v>53.32650760441336</v>
       </c>
       <c r="P42" t="n">
-        <v>42.79922370049862</v>
+        <v>42.79922370049863</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.61014760851008</v>
+        <v>28.61014760851009</v>
       </c>
       <c r="R42" t="n">
         <v>13.91579334614035</v>
       </c>
       <c r="S42" t="n">
-        <v>4.163138232615451</v>
+        <v>4.163138232615452</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9034059116348526</v>
+        <v>0.9034059116348528</v>
       </c>
       <c r="U42" t="n">
         <v>0.01474547189828379</v>
@@ -34284,10 +34284,10 @@
         <v>1.670637793170802</v>
       </c>
       <c r="I43" t="n">
-        <v>5.65078713681903</v>
+        <v>5.650787136819031</v>
       </c>
       <c r="J43" t="n">
-        <v>13.28481607105247</v>
+        <v>13.28481607105248</v>
       </c>
       <c r="K43" t="n">
         <v>21.8310337389804</v>
@@ -34296,13 +34296,13 @@
         <v>27.93620702404426</v>
       </c>
       <c r="M43" t="n">
-        <v>29.4548133615993</v>
+        <v>29.45481336159931</v>
       </c>
       <c r="N43" t="n">
         <v>28.75444373460543</v>
       </c>
       <c r="O43" t="n">
-        <v>26.55938283049041</v>
+        <v>26.55938283049042</v>
       </c>
       <c r="P43" t="n">
         <v>22.72614028665064</v>
@@ -34314,10 +34314,10 @@
         <v>8.448849207589754</v>
       </c>
       <c r="S43" t="n">
-        <v>3.274655060847059</v>
+        <v>3.27465506084706</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8028627431393418</v>
+        <v>0.8028627431393419</v>
       </c>
       <c r="U43" t="n">
         <v>0.0102493116145448</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4188998381823999</v>
+        <v>0.4188998381824</v>
       </c>
       <c r="H44" t="n">
         <v>4.290057967785504</v>
@@ -34369,7 +34369,7 @@
         <v>35.5536001409335</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28563029119449</v>
+        <v>53.2856302911945</v>
       </c>
       <c r="L44" t="n">
         <v>66.10553621396913</v>
@@ -34378,13 +34378,13 @@
         <v>73.55514621124539</v>
       </c>
       <c r="N44" t="n">
-        <v>74.74534537648113</v>
+        <v>74.74534537648114</v>
       </c>
       <c r="O44" t="n">
         <v>70.57991011055489</v>
       </c>
       <c r="P44" t="n">
-        <v>60.23832035542688</v>
+        <v>60.23832035542689</v>
       </c>
       <c r="Q44" t="n">
         <v>45.23646990051967</v>
@@ -34393,13 +34393,13 @@
         <v>26.3137169602252</v>
       </c>
       <c r="S44" t="n">
-        <v>9.545680062581447</v>
+        <v>9.545680062581448</v>
       </c>
       <c r="T44" t="n">
-        <v>1.833734041643456</v>
+        <v>1.833734041643457</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03351198705459198</v>
+        <v>0.03351198705459199</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,10 +34439,10 @@
         <v>0.2241311728539135</v>
       </c>
       <c r="H45" t="n">
-        <v>2.164635274668059</v>
+        <v>2.16463527466806</v>
       </c>
       <c r="I45" t="n">
-        <v>7.716796960101846</v>
+        <v>7.716796960101847</v>
       </c>
       <c r="J45" t="n">
         <v>21.1754806773954</v>
@@ -34451,31 +34451,31 @@
         <v>36.1922692586076</v>
       </c>
       <c r="L45" t="n">
-        <v>48.66497242163591</v>
+        <v>48.66497242163592</v>
       </c>
       <c r="M45" t="n">
-        <v>56.78972743759026</v>
+        <v>56.78972743759027</v>
       </c>
       <c r="N45" t="n">
-        <v>58.29278253975533</v>
+        <v>58.29278253975534</v>
       </c>
       <c r="O45" t="n">
-        <v>53.32650760441335</v>
+        <v>53.32650760441336</v>
       </c>
       <c r="P45" t="n">
-        <v>42.79922370049862</v>
+        <v>42.79922370049863</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.61014760851008</v>
+        <v>28.61014760851009</v>
       </c>
       <c r="R45" t="n">
         <v>13.91579334614035</v>
       </c>
       <c r="S45" t="n">
-        <v>4.163138232615451</v>
+        <v>4.163138232615452</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9034059116348526</v>
+        <v>0.9034059116348528</v>
       </c>
       <c r="U45" t="n">
         <v>0.01474547189828379</v>
@@ -34521,10 +34521,10 @@
         <v>1.670637793170802</v>
       </c>
       <c r="I46" t="n">
-        <v>5.65078713681903</v>
+        <v>5.650787136819031</v>
       </c>
       <c r="J46" t="n">
-        <v>13.28481607105247</v>
+        <v>13.28481607105248</v>
       </c>
       <c r="K46" t="n">
         <v>21.8310337389804</v>
@@ -34533,13 +34533,13 @@
         <v>27.93620702404426</v>
       </c>
       <c r="M46" t="n">
-        <v>29.4548133615993</v>
+        <v>29.45481336159931</v>
       </c>
       <c r="N46" t="n">
         <v>28.75444373460543</v>
       </c>
       <c r="O46" t="n">
-        <v>26.55938283049041</v>
+        <v>26.55938283049042</v>
       </c>
       <c r="P46" t="n">
         <v>22.72614028665064</v>
@@ -34551,10 +34551,10 @@
         <v>8.448849207589754</v>
       </c>
       <c r="S46" t="n">
-        <v>3.274655060847059</v>
+        <v>3.27465506084706</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8028627431393418</v>
+        <v>0.8028627431393419</v>
       </c>
       <c r="U46" t="n">
         <v>0.0102493116145448</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>76.9549612177708</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>51.52016361342275</v>
       </c>
       <c r="L11" t="n">
-        <v>49.11497697927656</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="M11" t="n">
         <v>83.81751137732815</v>
       </c>
       <c r="N11" t="n">
-        <v>78.26221480760593</v>
+        <v>78.26221480760594</v>
       </c>
       <c r="O11" t="n">
         <v>36.61860963435606</v>
@@ -35431,7 +35431,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>9.995042630841105</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>39.39918729404061</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="M12" t="n">
-        <v>84.54481721446604</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>41.7296777097399</v>
+        <v>41.72967770974001</v>
       </c>
       <c r="O12" t="n">
-        <v>84.54481721446604</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="P12" t="n">
-        <v>84.54481721446604</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,25 +35541,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.49452106119637</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>37.65426075419211</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>58.92879147545375</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>62.43530051393947</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>65.18455950771781</v>
+        <v>65.18455950771778</v>
       </c>
       <c r="G13" t="n">
-        <v>35.41613064448615</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>11.59402361028824</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35571,16 +35571,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>63.4333936306241</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>76.95496121777063</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2.4051866341462</v>
       </c>
       <c r="L14" t="n">
         <v>49.11497697927656</v>
@@ -35656,19 +35656,19 @@
         <v>83.81751137732815</v>
       </c>
       <c r="N14" t="n">
-        <v>78.26221480760593</v>
+        <v>78.26221480760594</v>
       </c>
       <c r="O14" t="n">
         <v>36.61860963435606</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>9.995042630841276</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.39918729404061</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="M15" t="n">
-        <v>84.54481721446604</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="N15" t="n">
-        <v>81.1288650037805</v>
+        <v>41.72967770974001</v>
       </c>
       <c r="O15" t="n">
-        <v>84.54481721446604</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="P15" t="n">
-        <v>84.54481721446604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,19 +35778,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.49452106119654</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>58.92879147545392</v>
+        <v>58.92879147545381</v>
       </c>
       <c r="E16" t="n">
-        <v>62.43530051393964</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>65.18455950771798</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35799,19 +35799,19 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4062869906862422</v>
+        <v>39.42278639300413</v>
       </c>
       <c r="J16" t="n">
-        <v>84.25812801827858</v>
+        <v>84.25812801827847</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>30.55306446607111</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35887,13 +35887,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>49.11497697927656</v>
+        <v>51.52016361342277</v>
       </c>
       <c r="M17" t="n">
         <v>83.81751137732815</v>
       </c>
       <c r="N17" t="n">
-        <v>78.26221480760593</v>
+        <v>78.26221480760594</v>
       </c>
       <c r="O17" t="n">
         <v>36.61860963435606</v>
@@ -35905,19 +35905,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>72.39689513743151</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>14.55310871118047</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>39.39918729404061</v>
       </c>
       <c r="L18" t="n">
-        <v>81.1288650037805</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="M18" t="n">
-        <v>84.54481721446604</v>
+        <v>41.72967770974001</v>
       </c>
       <c r="N18" t="n">
-        <v>84.54481721446604</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="O18" t="n">
-        <v>84.54481721446604</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36115,10 +36115,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>72.39689513743146</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>83.81751137732815</v>
       </c>
       <c r="N20" t="n">
-        <v>78.26221480760593</v>
+        <v>78.26221480760594</v>
       </c>
       <c r="O20" t="n">
         <v>36.61860963435606</v>
@@ -36139,7 +36139,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>2.405186634146186</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36154,7 +36154,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>14.55310871118047</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>39.39918729404061</v>
       </c>
       <c r="L21" t="n">
-        <v>41.72967770973989</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>41.72967770974001</v>
       </c>
       <c r="N21" t="n">
-        <v>84.54481721446604</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="O21" t="n">
-        <v>84.54481721446604</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="P21" t="n">
-        <v>84.54481721446604</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>83.81751137732815</v>
       </c>
       <c r="N23" t="n">
-        <v>78.26221480760593</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="O23" t="n">
         <v>36.61860963435606</v>
@@ -36376,13 +36376,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>66.11429273057178</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>72.39689513743197</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>84.54481721446614</v>
       </c>
       <c r="M24" t="n">
         <v>84.54481721446614</v>
@@ -36452,7 +36452,7 @@
         <v>84.54481721446614</v>
       </c>
       <c r="P24" t="n">
-        <v>84.54481721446614</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36604,10 +36604,10 @@
         <v>296.6579549473674</v>
       </c>
       <c r="N26" t="n">
-        <v>291.1026583776452</v>
+        <v>291.1026583776453</v>
       </c>
       <c r="O26" t="n">
-        <v>249.459053204396</v>
+        <v>249.4590532043954</v>
       </c>
       <c r="P26" t="n">
         <v>199.5000719991581</v>
@@ -36616,7 +36616,7 @@
         <v>124.4440857713489</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72404447471597</v>
+        <v>18.72404447471598</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>39.39918729404061</v>
       </c>
       <c r="L27" t="n">
-        <v>119.9331728468309</v>
+        <v>119.933172846831</v>
       </c>
       <c r="M27" t="n">
         <v>185.1630873627279</v>
@@ -36738,19 +36738,19 @@
         <v>71.16430235781434</v>
       </c>
       <c r="F28" t="n">
-        <v>73.91356135159268</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>24.7487556846348</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.15178823687894</v>
       </c>
       <c r="J28" t="n">
-        <v>91.97411243207438</v>
+        <v>92.98712986215328</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>39.39918729404061</v>
       </c>
       <c r="L30" t="n">
-        <v>119.9331728468309</v>
+        <v>119.933172846831</v>
       </c>
       <c r="M30" t="n">
         <v>185.1630873627279</v>
@@ -36996,7 +36996,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>39.8955725692101</v>
+        <v>39.89557256921011</v>
       </c>
       <c r="N31" t="n">
         <v>197.1564035722715</v>
@@ -37069,28 +37069,28 @@
         <v>137.0926468199194</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6626829324723</v>
+        <v>207.6626829324724</v>
       </c>
       <c r="L32" t="n">
-        <v>261.9554205493159</v>
+        <v>261.9554205493156</v>
       </c>
       <c r="M32" t="n">
-        <v>296.6579549473675</v>
+        <v>296.6579549473676</v>
       </c>
       <c r="N32" t="n">
         <v>291.1026583776453</v>
       </c>
       <c r="O32" t="n">
-        <v>249.459053204396</v>
+        <v>249.4590532043954</v>
       </c>
       <c r="P32" t="n">
-        <v>199.5000719991581</v>
+        <v>199.5000719991582</v>
       </c>
       <c r="Q32" t="n">
         <v>124.4440857713489</v>
       </c>
       <c r="R32" t="n">
-        <v>18.724044474716</v>
+        <v>18.72404447471603</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>39.39918729404061</v>
       </c>
       <c r="L33" t="n">
-        <v>119.9331728468309</v>
+        <v>119.933172846831</v>
       </c>
       <c r="M33" t="n">
         <v>185.1630873627279</v>
@@ -37200,7 +37200,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.22352290507126</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -37215,7 +37215,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>44.14513248836107</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37230,22 +37230,22 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>181.5009521299002</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>115.7474730785829</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>11.40589152321968</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.08098015782706</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>160.4872950285468</v>
+        <v>120.7653556812083</v>
       </c>
       <c r="K35" t="n">
-        <v>231.0573311410997</v>
+        <v>231.0573311410998</v>
       </c>
       <c r="L35" t="n">
-        <v>218.4652264194028</v>
+        <v>49.11497697927656</v>
       </c>
       <c r="M35" t="n">
         <v>320.0526031559949</v>
       </c>
       <c r="N35" t="n">
-        <v>314.4973065862727</v>
+        <v>78.26221480760594</v>
       </c>
       <c r="O35" t="n">
-        <v>36.61860963435606</v>
+        <v>272.8537014130229</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>222.8947202077856</v>
       </c>
       <c r="Q35" t="n">
         <v>147.8387339799763</v>
@@ -37330,10 +37330,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.995665063189186</v>
+        <v>8.995665063189245</v>
       </c>
       <c r="T35" t="n">
-        <v>13.82253142032215</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>39.39918729404061</v>
       </c>
       <c r="L36" t="n">
-        <v>119.9331728468309</v>
+        <v>119.933172846831</v>
       </c>
       <c r="M36" t="n">
         <v>185.1630873627279</v>
@@ -37455,10 +37455,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>70.45927267739766</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>46.361658514044</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>116.8209311914414</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.8922673377039909</v>
+        <v>0.8922673377040482</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>160.4872950285468</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>231.0573311410997</v>
       </c>
       <c r="L38" t="n">
-        <v>49.11497697927656</v>
+        <v>285.3500687579433</v>
       </c>
       <c r="M38" t="n">
-        <v>219.2116790674244</v>
+        <v>310.3029083551696</v>
       </c>
       <c r="N38" t="n">
-        <v>314.4973065862728</v>
+        <v>314.4973065862727</v>
       </c>
       <c r="O38" t="n">
-        <v>272.8537014130229</v>
+        <v>36.61860963435606</v>
       </c>
       <c r="P38" t="n">
-        <v>222.8947202077856</v>
+        <v>222.8947202077855</v>
       </c>
       <c r="Q38" t="n">
-        <v>147.8387339799764</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>42.11869268334348</v>
+        <v>42.1186926833434</v>
       </c>
       <c r="S38" t="n">
-        <v>8.995665063189271</v>
+        <v>8.995665063189188</v>
       </c>
       <c r="T38" t="n">
-        <v>13.82253142032224</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>39.39918729404061</v>
       </c>
       <c r="L39" t="n">
-        <v>119.9331728468309</v>
+        <v>119.933172846831</v>
       </c>
       <c r="M39" t="n">
         <v>185.1630873627279</v>
@@ -37686,7 +37686,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.30820956022009</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37710,13 +37710,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>117.7131985291454</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>20.40498896892556</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,34 +37780,34 @@
         <v>160.4872950285468</v>
       </c>
       <c r="K41" t="n">
-        <v>231.0573311410997</v>
+        <v>135.3941676900951</v>
       </c>
       <c r="L41" t="n">
         <v>49.11497697927656</v>
       </c>
       <c r="M41" t="n">
-        <v>320.0526031559949</v>
+        <v>320.052603155995</v>
       </c>
       <c r="N41" t="n">
-        <v>78.26221480760593</v>
+        <v>78.26221480760594</v>
       </c>
       <c r="O41" t="n">
-        <v>177.1905379620199</v>
+        <v>272.8537014130229</v>
       </c>
       <c r="P41" t="n">
-        <v>222.8947202077855</v>
+        <v>222.8947202077856</v>
       </c>
       <c r="Q41" t="n">
-        <v>147.8387339799763</v>
+        <v>147.8387339799764</v>
       </c>
       <c r="R41" t="n">
-        <v>42.11869268334339</v>
+        <v>42.11869268334348</v>
       </c>
       <c r="S41" t="n">
-        <v>8.995665063189186</v>
+        <v>8.995665063189273</v>
       </c>
       <c r="T41" t="n">
-        <v>13.82253142032215</v>
+        <v>13.82253142032224</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>39.39918729404061</v>
       </c>
       <c r="L42" t="n">
-        <v>119.9331728468309</v>
+        <v>119.933172846831</v>
       </c>
       <c r="M42" t="n">
         <v>185.1630873627279</v>
@@ -37950,10 +37950,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>117.7131985291456</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>117.7131985291454</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,34 +38017,34 @@
         <v>160.4872950285468</v>
       </c>
       <c r="K44" t="n">
-        <v>231.0573311410997</v>
+        <v>231.0573311410998</v>
       </c>
       <c r="L44" t="n">
-        <v>212.5051017904518</v>
+        <v>49.11497697927656</v>
       </c>
       <c r="M44" t="n">
         <v>320.0526031559949</v>
       </c>
       <c r="N44" t="n">
-        <v>78.26221480760593</v>
+        <v>314.4973065862727</v>
       </c>
       <c r="O44" t="n">
         <v>36.61860963435606</v>
       </c>
       <c r="P44" t="n">
-        <v>222.8947202077855</v>
+        <v>127.2315567567814</v>
       </c>
       <c r="Q44" t="n">
         <v>147.8387339799763</v>
       </c>
       <c r="R44" t="n">
-        <v>42.11869268334339</v>
+        <v>42.11869268334343</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>8.995665063189216</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>13.82253142032218</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>39.39918729404061</v>
       </c>
       <c r="L45" t="n">
-        <v>119.9331728468309</v>
+        <v>119.933172846831</v>
       </c>
       <c r="M45" t="n">
         <v>185.1630873627279</v>
@@ -38178,10 +38178,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>117.7131985291456</v>
       </c>
       <c r="M46" t="n">
-        <v>117.7131985291456</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
